--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_6_8.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_6_8.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1448247.241362215</v>
+        <v>-1451812.743235764</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2220068.892516699</v>
+        <v>2280223.65389273</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>419463.0933791243</v>
+        <v>419463.0933791242</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>13564755.02072618</v>
+        <v>13561215.14438367</v>
       </c>
     </row>
     <row r="11">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>202.9180642875259</v>
       </c>
       <c r="C2" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F2" t="n">
         <v>412.725494085322</v>
       </c>
       <c r="G2" t="n">
-        <v>409.0311279568768</v>
+        <v>9.031127956876844</v>
       </c>
       <c r="H2" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,28 +704,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S2" t="n">
-        <v>73.88905836623621</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W2" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="3">
@@ -738,10 +738,10 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>149.1476881355087</v>
+        <v>17.59637975615896</v>
       </c>
       <c r="D3" t="n">
-        <v>93.88870641497003</v>
+        <v>128.7880777047345</v>
       </c>
       <c r="E3" t="n">
         <v>135.0820259802211</v>
@@ -820,25 +820,25 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>149.3695299164277</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -862,28 +862,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>206.4502314363189</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="5">
@@ -893,10 +893,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>33.04641253206371</v>
       </c>
       <c r="C5" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -914,7 +914,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,19 +941,19 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U5" t="n">
-        <v>214.1859932048386</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W5" t="n">
         <v>367.2890446813954</v>
@@ -984,10 +984,10 @@
         <v>135.0820259802211</v>
       </c>
       <c r="F6" t="n">
-        <v>123.1874880556995</v>
+        <v>96.52485201226486</v>
       </c>
       <c r="G6" t="n">
-        <v>69.9893010461506</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -1099,28 +1099,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>282.5844038405181</v>
       </c>
       <c r="V7" t="n">
-        <v>253.8243076884218</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>66.0314987001008</v>
       </c>
     </row>
     <row r="8">
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>389.2437464820987</v>
@@ -1139,10 +1139,10 @@
         <v>381.5867174954989</v>
       </c>
       <c r="E8" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>412.725494085322</v>
+        <v>12.725494085322</v>
       </c>
       <c r="G8" t="n">
         <v>9.031127956876844</v>
@@ -1151,7 +1151,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,28 +1178,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U8" t="n">
         <v>253.1952022697474</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y8" t="n">
-        <v>54.32240344743254</v>
+        <v>129.2937443845751</v>
       </c>
     </row>
     <row r="9">
@@ -1291,28 +1291,28 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D10" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I10" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1354,10 +1354,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>83.40596380524005</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>154.9102625341102</v>
       </c>
     </row>
     <row r="11">
@@ -1370,13 +1370,13 @@
         <v>325.411485859551</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>318.1654340873667</v>
       </c>
       <c r="D11" t="n">
-        <v>310.508405100767</v>
+        <v>49.79845747110483</v>
       </c>
       <c r="E11" t="n">
-        <v>327.479377239889</v>
+        <v>327.4793772398889</v>
       </c>
       <c r="F11" t="n">
         <v>341.6471816905901</v>
@@ -1388,7 +1388,7 @@
         <v>249.7639075344423</v>
       </c>
       <c r="I11" t="n">
-        <v>65.87543334372791</v>
+        <v>65.87543334372789</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,25 +1418,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>93.77010711362803</v>
+        <v>93.77010711362801</v>
       </c>
       <c r="T11" t="n">
-        <v>150.1872840214456</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>182.1168898750155</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>267.6074288087848</v>
       </c>
       <c r="W11" t="n">
-        <v>296.2107322866635</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>11.02777570490602</v>
+        <v>314.4797666215418</v>
       </c>
       <c r="Y11" t="n">
-        <v>321.447489593873</v>
+        <v>321.4474895938729</v>
       </c>
     </row>
     <row r="12">
@@ -1525,25 +1525,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>112.2776261096564</v>
+        <v>102.346987831091</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>97.42475435993875</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>82.99846957177847</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>84.67436304442487</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>95.493200966817</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>82.84545313338904</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,19 +1573,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>21.59486433564557</v>
+        <v>51.58366707901688</v>
       </c>
       <c r="S13" t="n">
-        <v>129.7096105845442</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>162.2835489187163</v>
       </c>
       <c r="U13" t="n">
-        <v>211.5060914457862</v>
+        <v>211.5060914457861</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>192.2412393326521</v>
       </c>
       <c r="W13" t="n">
         <v>209.4187856534022</v>
@@ -1594,7 +1594,7 @@
         <v>160.6612066001148</v>
       </c>
       <c r="Y13" t="n">
-        <v>149.8026281767912</v>
+        <v>149.8026281767911</v>
       </c>
     </row>
     <row r="14">
@@ -1607,7 +1607,7 @@
         <v>325.411485859551</v>
       </c>
       <c r="C14" t="n">
-        <v>318.1654340873667</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>310.508405100767</v>
@@ -1619,13 +1619,13 @@
         <v>341.6471816905901</v>
       </c>
       <c r="G14" t="n">
-        <v>184.4572127244167</v>
+        <v>337.9528155621449</v>
       </c>
       <c r="H14" t="n">
         <v>249.7639075344423</v>
       </c>
       <c r="I14" t="n">
-        <v>65.87543334372791</v>
+        <v>65.87543334372789</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,25 +1655,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>93.77010711362801</v>
       </c>
       <c r="T14" t="n">
         <v>150.1872840214456</v>
       </c>
       <c r="U14" t="n">
-        <v>182.1168898750155</v>
+        <v>182.1168898750154</v>
       </c>
       <c r="V14" t="n">
-        <v>267.6074288087849</v>
+        <v>267.6074288087848</v>
       </c>
       <c r="W14" t="n">
         <v>296.2107322866635</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>314.4797666215418</v>
       </c>
       <c r="Y14" t="n">
-        <v>321.447489593873</v>
+        <v>77.86744710834192</v>
       </c>
     </row>
     <row r="15">
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>112.2776261096564</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>97.42475435993876</v>
+        <v>97.42475435993875</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>82.99846957177847</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>84.67436304442487</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>95.493200966817</v>
+        <v>82.03316344580996</v>
       </c>
       <c r="H16" t="n">
-        <v>44.45997224654175</v>
+        <v>82.84545313338903</v>
       </c>
       <c r="I16" t="n">
-        <v>60.68516871456097</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>51.58366707901688</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>129.7096105845442</v>
       </c>
       <c r="T16" t="n">
         <v>162.2835489187163</v>
       </c>
       <c r="U16" t="n">
-        <v>211.5060914457862</v>
+        <v>211.5060914457861</v>
       </c>
       <c r="V16" t="n">
-        <v>192.2412393326521</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>209.4187856534022</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>160.6612066001148</v>
       </c>
       <c r="Y16" t="n">
-        <v>149.8026281767912</v>
+        <v>149.8026281767911</v>
       </c>
     </row>
     <row r="17">
@@ -1841,7 +1841,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>266.1298289386985</v>
+        <v>266.1298289386984</v>
       </c>
       <c r="C17" t="n">
         <v>258.8837771665143</v>
@@ -1850,7 +1850,7 @@
         <v>251.2267481799145</v>
       </c>
       <c r="E17" t="n">
-        <v>268.1977203190365</v>
+        <v>268.1977203190364</v>
       </c>
       <c r="F17" t="n">
         <v>282.3655247697376</v>
@@ -1862,7 +1862,7 @@
         <v>190.4822506135898</v>
       </c>
       <c r="I17" t="n">
-        <v>6.593776422875408</v>
+        <v>6.593776422875379</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,16 +1892,16 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>34.48845019277553</v>
+        <v>34.4884501927755</v>
       </c>
       <c r="T17" t="n">
-        <v>90.90562710059308</v>
+        <v>90.90562710059305</v>
       </c>
       <c r="U17" t="n">
-        <v>122.835232954163</v>
+        <v>122.8352329541629</v>
       </c>
       <c r="V17" t="n">
-        <v>208.3257718879324</v>
+        <v>208.3257718879323</v>
       </c>
       <c r="W17" t="n">
         <v>236.929075365811</v>
@@ -1910,7 +1910,7 @@
         <v>255.1981097006893</v>
       </c>
       <c r="Y17" t="n">
-        <v>262.1658326730213</v>
+        <v>262.1658326730204</v>
       </c>
     </row>
     <row r="18">
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>52.99596918880385</v>
+        <v>52.99596918880383</v>
       </c>
       <c r="C19" t="n">
-        <v>38.14309743908626</v>
+        <v>38.14309743908623</v>
       </c>
       <c r="D19" t="n">
-        <v>23.71681265092599</v>
+        <v>23.71681265092596</v>
       </c>
       <c r="E19" t="n">
-        <v>23.6432547038051</v>
+        <v>23.64325470380507</v>
       </c>
       <c r="F19" t="n">
-        <v>25.39270612357237</v>
+        <v>25.39270612357234</v>
       </c>
       <c r="G19" t="n">
-        <v>36.2115440459645</v>
+        <v>36.21154404596447</v>
       </c>
       <c r="H19" t="n">
-        <v>23.56379621253654</v>
+        <v>23.56379621253652</v>
       </c>
       <c r="I19" t="n">
-        <v>1.403511793708475</v>
+        <v>1.403511793708446</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,13 +2050,13 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>70.42795366369171</v>
+        <v>70.42795366369168</v>
       </c>
       <c r="T19" t="n">
         <v>103.0018919978638</v>
       </c>
       <c r="U19" t="n">
-        <v>152.2244345249337</v>
+        <v>152.2244345249336</v>
       </c>
       <c r="V19" t="n">
         <v>132.9595824117996</v>
@@ -2068,7 +2068,7 @@
         <v>101.3795496792623</v>
       </c>
       <c r="Y19" t="n">
-        <v>90.52097125593866</v>
+        <v>90.52097125593863</v>
       </c>
     </row>
     <row r="20">
@@ -2078,13 +2078,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>266.1298289386985</v>
+        <v>266.1298289386986</v>
       </c>
       <c r="C20" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D20" t="n">
-        <v>251.2267481799145</v>
+        <v>251.2267481799146</v>
       </c>
       <c r="E20" t="n">
         <v>268.1977203190365</v>
@@ -2096,10 +2096,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H20" t="n">
-        <v>190.4822506135898</v>
+        <v>190.4822506135899</v>
       </c>
       <c r="I20" t="n">
-        <v>6.593776422875408</v>
+        <v>6.593776422875436</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,10 +2129,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>34.48845019277553</v>
+        <v>34.48845019277556</v>
       </c>
       <c r="T20" t="n">
-        <v>90.90562710059308</v>
+        <v>90.90562710059311</v>
       </c>
       <c r="U20" t="n">
         <v>122.835232954163</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>52.99596918880385</v>
+        <v>52.99596918880388</v>
       </c>
       <c r="C22" t="n">
-        <v>38.14309743908626</v>
+        <v>38.14309743908629</v>
       </c>
       <c r="D22" t="n">
-        <v>23.71681265092599</v>
+        <v>23.71681265092602</v>
       </c>
       <c r="E22" t="n">
-        <v>23.6432547038051</v>
+        <v>23.64325470380513</v>
       </c>
       <c r="F22" t="n">
-        <v>25.39270612357237</v>
+        <v>25.3927061235724</v>
       </c>
       <c r="G22" t="n">
-        <v>36.2115440459645</v>
+        <v>36.21154404596453</v>
       </c>
       <c r="H22" t="n">
-        <v>23.56379621253654</v>
+        <v>23.56379621253657</v>
       </c>
       <c r="I22" t="n">
-        <v>1.403511793708475</v>
+        <v>1.403511793708503</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,7 +2287,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>70.42795366369171</v>
+        <v>70.42795366369174</v>
       </c>
       <c r="T22" t="n">
         <v>103.0018919978638</v>
@@ -2299,13 +2299,13 @@
         <v>132.9595824117996</v>
       </c>
       <c r="W22" t="n">
-        <v>150.1371287325497</v>
+        <v>150.1371287325498</v>
       </c>
       <c r="X22" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y22" t="n">
-        <v>90.52097125593866</v>
+        <v>90.52097125593869</v>
       </c>
     </row>
     <row r="23">
@@ -2315,13 +2315,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>266.1298289386985</v>
+        <v>266.1298289386986</v>
       </c>
       <c r="C23" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D23" t="n">
-        <v>251.2267481799145</v>
+        <v>251.2267481799146</v>
       </c>
       <c r="E23" t="n">
         <v>268.1977203190365</v>
@@ -2333,10 +2333,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H23" t="n">
-        <v>190.4822506135898</v>
+        <v>190.4822506135899</v>
       </c>
       <c r="I23" t="n">
-        <v>6.593776422875408</v>
+        <v>6.593776422875436</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,10 +2366,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>34.48845019277553</v>
+        <v>34.48845019277556</v>
       </c>
       <c r="T23" t="n">
-        <v>90.90562710059308</v>
+        <v>90.90562710059311</v>
       </c>
       <c r="U23" t="n">
         <v>122.835232954163</v>
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>52.99596918880385</v>
+        <v>52.99596918880388</v>
       </c>
       <c r="C25" t="n">
-        <v>38.14309743908626</v>
+        <v>38.14309743908629</v>
       </c>
       <c r="D25" t="n">
-        <v>23.71681265092599</v>
+        <v>23.71681265092602</v>
       </c>
       <c r="E25" t="n">
-        <v>23.6432547038051</v>
+        <v>23.64325470380513</v>
       </c>
       <c r="F25" t="n">
-        <v>25.39270612357237</v>
+        <v>25.3927061235724</v>
       </c>
       <c r="G25" t="n">
-        <v>36.2115440459645</v>
+        <v>36.21154404596453</v>
       </c>
       <c r="H25" t="n">
-        <v>23.56379621253654</v>
+        <v>23.56379621253657</v>
       </c>
       <c r="I25" t="n">
-        <v>1.403511793708475</v>
+        <v>1.403511793708503</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>70.42795366369171</v>
+        <v>70.42795366369174</v>
       </c>
       <c r="T25" t="n">
         <v>103.0018919978638</v>
@@ -2536,13 +2536,13 @@
         <v>132.9595824117996</v>
       </c>
       <c r="W25" t="n">
-        <v>150.1371287325497</v>
+        <v>150.1371287325498</v>
       </c>
       <c r="X25" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y25" t="n">
-        <v>90.52097125593866</v>
+        <v>90.52097125593869</v>
       </c>
     </row>
     <row r="26">
@@ -3026,28 +3026,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>290.153340954212</v>
+        <v>283.709878481573</v>
       </c>
       <c r="C32" t="n">
-        <v>282.9072891820277</v>
+        <v>276.4638267093887</v>
       </c>
       <c r="D32" t="n">
-        <v>275.250260195428</v>
+        <v>268.806797722789</v>
       </c>
       <c r="E32" t="n">
-        <v>292.2212323345499</v>
+        <v>285.777769861911</v>
       </c>
       <c r="F32" t="n">
-        <v>306.3890367852511</v>
+        <v>299.9455743126121</v>
       </c>
       <c r="G32" t="n">
-        <v>302.6946706568059</v>
+        <v>296.2512081841669</v>
       </c>
       <c r="H32" t="n">
-        <v>214.5057626291033</v>
+        <v>208.0623001564643</v>
       </c>
       <c r="I32" t="n">
-        <v>30.61728843838888</v>
+        <v>24.1738259657499</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>58.51196220828901</v>
+        <v>52.06849973565002</v>
       </c>
       <c r="T32" t="n">
-        <v>114.9291391161066</v>
+        <v>108.4856766434676</v>
       </c>
       <c r="U32" t="n">
-        <v>146.8587449696764</v>
+        <v>140.4152824970375</v>
       </c>
       <c r="V32" t="n">
-        <v>232.3492839034458</v>
+        <v>225.9058214308069</v>
       </c>
       <c r="W32" t="n">
-        <v>260.9525873813245</v>
+        <v>254.5091249086855</v>
       </c>
       <c r="X32" t="n">
-        <v>279.2216217162028</v>
+        <v>272.7781592435638</v>
       </c>
       <c r="Y32" t="n">
-        <v>286.1893446885339</v>
+        <v>279.745882215895</v>
       </c>
     </row>
     <row r="33">
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>77.01948120431733</v>
+        <v>70.57601873167835</v>
       </c>
       <c r="C34" t="n">
-        <v>62.16660945459974</v>
+        <v>55.72314698196075</v>
       </c>
       <c r="D34" t="n">
-        <v>47.74032466643946</v>
+        <v>41.29686219380048</v>
       </c>
       <c r="E34" t="n">
-        <v>47.66676671931857</v>
+        <v>41.22330424667959</v>
       </c>
       <c r="F34" t="n">
-        <v>49.41621813908584</v>
+        <v>42.97275566644686</v>
       </c>
       <c r="G34" t="n">
-        <v>60.23505606147798</v>
+        <v>53.79159358883899</v>
       </c>
       <c r="H34" t="n">
-        <v>47.58730822805002</v>
+        <v>41.14384575541104</v>
       </c>
       <c r="I34" t="n">
-        <v>25.42702380922195</v>
+        <v>18.98356133658297</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>16.32552217367787</v>
+        <v>9.882059701038884</v>
       </c>
       <c r="S34" t="n">
-        <v>94.45146567920519</v>
+        <v>88.0080032065662</v>
       </c>
       <c r="T34" t="n">
-        <v>127.0254040133773</v>
+        <v>120.5819415407383</v>
       </c>
       <c r="U34" t="n">
-        <v>176.2479465404471</v>
+        <v>169.8044840678081</v>
       </c>
       <c r="V34" t="n">
-        <v>156.9830944273131</v>
+        <v>150.5396319546741</v>
       </c>
       <c r="W34" t="n">
-        <v>174.1606407480632</v>
+        <v>167.7171782754242</v>
       </c>
       <c r="X34" t="n">
-        <v>125.4030616947758</v>
+        <v>118.9595992221368</v>
       </c>
       <c r="Y34" t="n">
-        <v>114.5444832714521</v>
+        <v>108.1010207988132</v>
       </c>
     </row>
     <row r="35">
@@ -3500,13 +3500,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>266.1298289386986</v>
+        <v>266.1298289386985</v>
       </c>
       <c r="C38" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D38" t="n">
-        <v>251.2267481799146</v>
+        <v>251.2267481799145</v>
       </c>
       <c r="E38" t="n">
         <v>268.1977203190365</v>
@@ -3518,10 +3518,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H38" t="n">
-        <v>190.4822506135899</v>
+        <v>190.4822506135898</v>
       </c>
       <c r="I38" t="n">
-        <v>6.593776422875436</v>
+        <v>6.593776422875408</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,10 +3551,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>34.48845019277556</v>
+        <v>34.48845019277553</v>
       </c>
       <c r="T38" t="n">
-        <v>90.90562710059311</v>
+        <v>90.90562710059308</v>
       </c>
       <c r="U38" t="n">
         <v>122.835232954163</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>52.99596918880388</v>
+        <v>52.99596918880385</v>
       </c>
       <c r="C40" t="n">
-        <v>38.14309743908629</v>
+        <v>38.14309743908626</v>
       </c>
       <c r="D40" t="n">
-        <v>23.71681265092602</v>
+        <v>23.71681265092599</v>
       </c>
       <c r="E40" t="n">
-        <v>23.64325470380513</v>
+        <v>23.6432547038051</v>
       </c>
       <c r="F40" t="n">
-        <v>25.3927061235724</v>
+        <v>25.39270612357237</v>
       </c>
       <c r="G40" t="n">
-        <v>36.21154404596453</v>
+        <v>36.2115440459645</v>
       </c>
       <c r="H40" t="n">
-        <v>23.56379621253657</v>
+        <v>23.56379621253654</v>
       </c>
       <c r="I40" t="n">
-        <v>1.403511793708503</v>
+        <v>1.403511793708475</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,7 +3709,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>70.42795366369174</v>
+        <v>70.42795366369171</v>
       </c>
       <c r="T40" t="n">
         <v>103.0018919978638</v>
@@ -3721,13 +3721,13 @@
         <v>132.9595824117996</v>
       </c>
       <c r="W40" t="n">
-        <v>150.1371287325498</v>
+        <v>150.1371287325497</v>
       </c>
       <c r="X40" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y40" t="n">
-        <v>90.52097125593869</v>
+        <v>90.52097125593866</v>
       </c>
     </row>
     <row r="41">
@@ -3737,13 +3737,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>266.1298289386986</v>
+        <v>266.1298289386985</v>
       </c>
       <c r="C41" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D41" t="n">
-        <v>251.2267481799146</v>
+        <v>251.2267481799145</v>
       </c>
       <c r="E41" t="n">
         <v>268.1977203190365</v>
@@ -3755,10 +3755,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H41" t="n">
-        <v>190.4822506135899</v>
+        <v>190.4822506135898</v>
       </c>
       <c r="I41" t="n">
-        <v>6.593776422875436</v>
+        <v>6.593776422875408</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,10 +3788,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>34.48845019277556</v>
+        <v>34.48845019277553</v>
       </c>
       <c r="T41" t="n">
-        <v>90.90562710059311</v>
+        <v>90.90562710059308</v>
       </c>
       <c r="U41" t="n">
         <v>122.835232954163</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>52.99596918880388</v>
+        <v>52.99596918880385</v>
       </c>
       <c r="C43" t="n">
-        <v>38.14309743908629</v>
+        <v>38.14309743908626</v>
       </c>
       <c r="D43" t="n">
-        <v>23.71681265092602</v>
+        <v>23.71681265092599</v>
       </c>
       <c r="E43" t="n">
-        <v>23.64325470380513</v>
+        <v>23.6432547038051</v>
       </c>
       <c r="F43" t="n">
-        <v>25.3927061235724</v>
+        <v>25.39270612357237</v>
       </c>
       <c r="G43" t="n">
-        <v>36.21154404596453</v>
+        <v>36.2115440459645</v>
       </c>
       <c r="H43" t="n">
-        <v>23.56379621253657</v>
+        <v>23.56379621253654</v>
       </c>
       <c r="I43" t="n">
-        <v>1.403511793708503</v>
+        <v>1.403511793708475</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3946,7 +3946,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>70.42795366369174</v>
+        <v>70.42795366369171</v>
       </c>
       <c r="T43" t="n">
         <v>103.0018919978638</v>
@@ -3958,13 +3958,13 @@
         <v>132.9595824117996</v>
       </c>
       <c r="W43" t="n">
-        <v>150.1371287325498</v>
+        <v>150.1371287325497</v>
       </c>
       <c r="X43" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y43" t="n">
-        <v>90.52097125593869</v>
+        <v>90.52097125593866</v>
       </c>
     </row>
     <row r="44">
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1729.148522214888</v>
+        <v>870.1035615814089</v>
       </c>
       <c r="C2" t="n">
-        <v>1335.973020717819</v>
+        <v>870.1035615814089</v>
       </c>
       <c r="D2" t="n">
-        <v>1335.973020717819</v>
+        <v>870.1035615814089</v>
       </c>
       <c r="E2" t="n">
-        <v>1335.973020717819</v>
+        <v>467.5200366979535</v>
       </c>
       <c r="F2" t="n">
-        <v>919.0785822477964</v>
+        <v>50.62559822793122</v>
       </c>
       <c r="G2" t="n">
-        <v>505.9158267357995</v>
+        <v>41.50324675633845</v>
       </c>
       <c r="H2" t="n">
-        <v>181.8327763022901</v>
+        <v>41.50324675633845</v>
       </c>
       <c r="I2" t="n">
-        <v>43.49565939475497</v>
+        <v>41.50324675633845</v>
       </c>
       <c r="J2" t="n">
-        <v>135.6402479253949</v>
+        <v>41.50324675633845</v>
       </c>
       <c r="K2" t="n">
-        <v>135.6402479253949</v>
+        <v>41.50324675633845</v>
       </c>
       <c r="L2" t="n">
-        <v>135.6402479253949</v>
+        <v>259.7298875736956</v>
       </c>
       <c r="M2" t="n">
-        <v>673.8990329354875</v>
+        <v>773.3325661833838</v>
       </c>
       <c r="N2" t="n">
-        <v>1201.71031657295</v>
+        <v>1286.935244793072</v>
       </c>
       <c r="O2" t="n">
-        <v>1641.749917465278</v>
+        <v>1726.974845685401</v>
       </c>
       <c r="P2" t="n">
-        <v>1989.9374095968</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="Q2" t="n">
-        <v>2174.782969737748</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="R2" t="n">
-        <v>2174.782969737748</v>
+        <v>2037.169424102444</v>
       </c>
       <c r="S2" t="n">
-        <v>2100.147557246601</v>
+        <v>2037.169424102444</v>
       </c>
       <c r="T2" t="n">
-        <v>2100.147557246601</v>
+        <v>1813.668821661861</v>
       </c>
       <c r="U2" t="n">
-        <v>2100.147557246601</v>
+        <v>1813.668821661861</v>
       </c>
       <c r="V2" t="n">
-        <v>2100.147557246601</v>
+        <v>1471.562012365379</v>
       </c>
       <c r="W2" t="n">
-        <v>1729.148522214888</v>
+        <v>1471.562012365379</v>
       </c>
       <c r="X2" t="n">
-        <v>1729.148522214888</v>
+        <v>1471.562012365379</v>
       </c>
       <c r="Y2" t="n">
-        <v>1729.148522214888</v>
+        <v>1075.071303285981</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>807.6097523431047</v>
+        <v>707.9891204222788</v>
       </c>
       <c r="C3" t="n">
-        <v>656.9555219031969</v>
+        <v>690.2149994564617</v>
       </c>
       <c r="D3" t="n">
-        <v>562.1184447163585</v>
+        <v>560.126032077942</v>
       </c>
       <c r="E3" t="n">
-        <v>425.6719538272462</v>
+        <v>423.6795411888297</v>
       </c>
       <c r="F3" t="n">
-        <v>301.240147710378</v>
+        <v>299.2477350719615</v>
       </c>
       <c r="G3" t="n">
-        <v>181.1803297822424</v>
+        <v>179.1879171438259</v>
       </c>
       <c r="H3" t="n">
-        <v>92.88291338284338</v>
+        <v>90.89050074442686</v>
       </c>
       <c r="I3" t="n">
-        <v>43.49565939475497</v>
+        <v>41.50324675633845</v>
       </c>
       <c r="J3" t="n">
-        <v>98.1790312282688</v>
+        <v>41.50324675633845</v>
       </c>
       <c r="K3" t="n">
-        <v>98.1790312282688</v>
+        <v>361.2423928185649</v>
       </c>
       <c r="L3" t="n">
-        <v>581.745117126582</v>
+        <v>844.8084787168782</v>
       </c>
       <c r="M3" t="n">
-        <v>1120.003902136675</v>
+        <v>1358.411157326566</v>
       </c>
       <c r="N3" t="n">
-        <v>1658.262687146767</v>
+        <v>1358.411157326566</v>
       </c>
       <c r="O3" t="n">
-        <v>2174.782969737748</v>
+        <v>1669.540969100525</v>
       </c>
       <c r="P3" t="n">
-        <v>2174.782969737748</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="Q3" t="n">
-        <v>2174.782969737748</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="R3" t="n">
-        <v>2150.865926635813</v>
+        <v>2051.245294714987</v>
       </c>
       <c r="S3" t="n">
-        <v>2015.935249535682</v>
+        <v>1916.314617614856</v>
       </c>
       <c r="T3" t="n">
-        <v>1838.95143773459</v>
+        <v>1739.330805813764</v>
       </c>
       <c r="U3" t="n">
-        <v>1628.888294413232</v>
+        <v>1529.267662492406</v>
       </c>
       <c r="V3" t="n">
-        <v>1406.348292784299</v>
+        <v>1306.727660863473</v>
       </c>
       <c r="W3" t="n">
-        <v>1176.231046917586</v>
+        <v>1076.61041499676</v>
       </c>
       <c r="X3" t="n">
-        <v>986.9239692675974</v>
+        <v>887.3033373467715</v>
       </c>
       <c r="Y3" t="n">
-        <v>807.6097523431047</v>
+        <v>707.9891204222788</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>537.711290500062</v>
+        <v>41.50324675633845</v>
       </c>
       <c r="C4" t="n">
-        <v>537.711290500062</v>
+        <v>41.50324675633845</v>
       </c>
       <c r="D4" t="n">
-        <v>382.0781774025767</v>
+        <v>41.50324675633845</v>
       </c>
       <c r="E4" t="n">
-        <v>382.0781774025767</v>
+        <v>41.50324675633845</v>
       </c>
       <c r="F4" t="n">
-        <v>224.7522426155497</v>
+        <v>41.50324675633845</v>
       </c>
       <c r="G4" t="n">
-        <v>224.7522426155497</v>
+        <v>41.50324675633845</v>
       </c>
       <c r="H4" t="n">
-        <v>73.87392956865301</v>
+        <v>41.50324675633845</v>
       </c>
       <c r="I4" t="n">
-        <v>73.87392956865301</v>
+        <v>41.50324675633845</v>
       </c>
       <c r="J4" t="n">
-        <v>43.49565939475497</v>
+        <v>41.50324675633845</v>
       </c>
       <c r="K4" t="n">
-        <v>125.3307005046968</v>
+        <v>123.3382878662803</v>
       </c>
       <c r="L4" t="n">
-        <v>289.4583403784966</v>
+        <v>287.4659277400801</v>
       </c>
       <c r="M4" t="n">
-        <v>475.7499187167606</v>
+        <v>473.7575060783441</v>
       </c>
       <c r="N4" t="n">
-        <v>658.9395527479699</v>
+        <v>656.9471401095534</v>
       </c>
       <c r="O4" t="n">
-        <v>821.6443197896779</v>
+        <v>819.6519071512614</v>
       </c>
       <c r="P4" t="n">
-        <v>941.5204855662564</v>
+        <v>939.52807292784</v>
       </c>
       <c r="Q4" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="R4" t="n">
-        <v>821.0416925688844</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="S4" t="n">
-        <v>821.0416925688844</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="T4" t="n">
-        <v>821.0416925688844</v>
+        <v>707.231217466125</v>
       </c>
       <c r="U4" t="n">
-        <v>821.0416925688844</v>
+        <v>498.695630156712</v>
       </c>
       <c r="V4" t="n">
-        <v>821.0416925688844</v>
+        <v>498.695630156712</v>
       </c>
       <c r="W4" t="n">
-        <v>537.711290500062</v>
+        <v>498.695630156712</v>
       </c>
       <c r="X4" t="n">
-        <v>537.711290500062</v>
+        <v>264.6153079396951</v>
       </c>
       <c r="Y4" t="n">
-        <v>537.711290500062</v>
+        <v>41.50324675633845</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>596.9846637005705</v>
+        <v>63.4796326575494</v>
       </c>
       <c r="C5" t="n">
-        <v>203.8091622035011</v>
+        <v>63.4796326575494</v>
       </c>
       <c r="D5" t="n">
-        <v>203.8091622035011</v>
+        <v>63.4796326575494</v>
       </c>
       <c r="E5" t="n">
-        <v>203.8091622035011</v>
+        <v>63.4796326575494</v>
       </c>
       <c r="F5" t="n">
-        <v>190.9551277738829</v>
+        <v>50.62559822793122</v>
       </c>
       <c r="G5" t="n">
-        <v>181.8327763022901</v>
+        <v>41.50324675633845</v>
       </c>
       <c r="H5" t="n">
-        <v>181.8327763022901</v>
+        <v>41.50324675633845</v>
       </c>
       <c r="I5" t="n">
-        <v>43.49565939475497</v>
+        <v>41.50324675633845</v>
       </c>
       <c r="J5" t="n">
-        <v>188.1454323035831</v>
+        <v>41.50324675633845</v>
       </c>
       <c r="K5" t="n">
-        <v>547.1277883310449</v>
+        <v>400.4856027838003</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.448080049574</v>
+        <v>893.8058945023291</v>
       </c>
       <c r="M5" t="n">
-        <v>1578.706865059666</v>
+        <v>893.8058945023291</v>
       </c>
       <c r="N5" t="n">
-        <v>2106.518148697128</v>
+        <v>1407.408573112017</v>
       </c>
       <c r="O5" t="n">
-        <v>2174.782969737748</v>
+        <v>1847.448174004346</v>
       </c>
       <c r="P5" t="n">
-        <v>2174.782969737748</v>
+        <v>1890.316777675974</v>
       </c>
       <c r="Q5" t="n">
-        <v>2174.782969737748</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="R5" t="n">
-        <v>2136.79005602327</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="S5" t="n">
-        <v>1970.276500964321</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="T5" t="n">
-        <v>1970.276500964321</v>
+        <v>1851.661735376339</v>
       </c>
       <c r="U5" t="n">
-        <v>1753.927012878625</v>
+        <v>1595.909005810938</v>
       </c>
       <c r="V5" t="n">
-        <v>1753.927012878625</v>
+        <v>1253.802196514456</v>
       </c>
       <c r="W5" t="n">
-        <v>1382.927977846913</v>
+        <v>882.8031614827437</v>
       </c>
       <c r="X5" t="n">
-        <v>993.4753727799693</v>
+        <v>493.3505564158005</v>
       </c>
       <c r="Y5" t="n">
-        <v>596.9846637005705</v>
+        <v>96.85984733640163</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>655.8134179021433</v>
+        <v>556.1927859813175</v>
       </c>
       <c r="C6" t="n">
-        <v>505.1591874622355</v>
+        <v>405.5385555414097</v>
       </c>
       <c r="D6" t="n">
-        <v>375.0702200837159</v>
+        <v>275.44958816289</v>
       </c>
       <c r="E6" t="n">
-        <v>238.6237291946036</v>
+        <v>139.0030972737777</v>
       </c>
       <c r="F6" t="n">
-        <v>114.1919230777354</v>
+        <v>41.50324675633845</v>
       </c>
       <c r="G6" t="n">
-        <v>43.49565939475497</v>
+        <v>41.50324675633845</v>
       </c>
       <c r="H6" t="n">
-        <v>43.49565939475497</v>
+        <v>41.50324675633845</v>
       </c>
       <c r="I6" t="n">
-        <v>43.49565939475497</v>
+        <v>41.50324675633845</v>
       </c>
       <c r="J6" t="n">
-        <v>156.6106416144823</v>
+        <v>41.50324675633845</v>
       </c>
       <c r="K6" t="n">
-        <v>476.3497876767088</v>
+        <v>41.50324675633845</v>
       </c>
       <c r="L6" t="n">
-        <v>959.915873575022</v>
+        <v>525.0693326546517</v>
       </c>
       <c r="M6" t="n">
-        <v>1423.897595591877</v>
+        <v>642.3356118811483</v>
       </c>
       <c r="N6" t="n">
-        <v>1423.897595591877</v>
+        <v>1155.938290490837</v>
       </c>
       <c r="O6" t="n">
-        <v>1940.417878182858</v>
+        <v>1669.540969100525</v>
       </c>
       <c r="P6" t="n">
-        <v>1940.417878182858</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="Q6" t="n">
-        <v>2174.782969737748</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="R6" t="n">
-        <v>2150.865926635813</v>
+        <v>2051.245294714987</v>
       </c>
       <c r="S6" t="n">
-        <v>2015.935249535682</v>
+        <v>1916.314617614856</v>
       </c>
       <c r="T6" t="n">
-        <v>1838.95143773459</v>
+        <v>1739.330805813764</v>
       </c>
       <c r="U6" t="n">
-        <v>1628.888294413232</v>
+        <v>1529.267662492406</v>
       </c>
       <c r="V6" t="n">
-        <v>1406.348292784299</v>
+        <v>1306.727660863473</v>
       </c>
       <c r="W6" t="n">
-        <v>1176.231046917586</v>
+        <v>1076.61041499676</v>
       </c>
       <c r="X6" t="n">
-        <v>986.9239692675974</v>
+        <v>887.3033373467715</v>
       </c>
       <c r="Y6" t="n">
-        <v>807.6097523431047</v>
+        <v>707.9891204222788</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>43.49565939475497</v>
+        <v>41.50324675633845</v>
       </c>
       <c r="C7" t="n">
-        <v>43.49565939475497</v>
+        <v>41.50324675633845</v>
       </c>
       <c r="D7" t="n">
-        <v>43.49565939475497</v>
+        <v>41.50324675633845</v>
       </c>
       <c r="E7" t="n">
-        <v>43.49565939475497</v>
+        <v>41.50324675633845</v>
       </c>
       <c r="F7" t="n">
-        <v>43.49565939475497</v>
+        <v>41.50324675633845</v>
       </c>
       <c r="G7" t="n">
-        <v>43.49565939475497</v>
+        <v>41.50324675633845</v>
       </c>
       <c r="H7" t="n">
-        <v>43.49565939475497</v>
+        <v>41.50324675633845</v>
       </c>
       <c r="I7" t="n">
-        <v>43.49565939475497</v>
+        <v>41.50324675633845</v>
       </c>
       <c r="J7" t="n">
-        <v>43.49565939475497</v>
+        <v>41.50324675633845</v>
       </c>
       <c r="K7" t="n">
-        <v>125.3307005046968</v>
+        <v>123.3382878662803</v>
       </c>
       <c r="L7" t="n">
-        <v>289.4583403784966</v>
+        <v>287.4659277400801</v>
       </c>
       <c r="M7" t="n">
-        <v>475.7499187167606</v>
+        <v>473.7575060783441</v>
       </c>
       <c r="N7" t="n">
-        <v>658.9395527479699</v>
+        <v>656.9471401095534</v>
       </c>
       <c r="O7" t="n">
-        <v>821.6443197896779</v>
+        <v>819.6519071512614</v>
       </c>
       <c r="P7" t="n">
-        <v>941.5204855662564</v>
+        <v>939.52807292784</v>
       </c>
       <c r="Q7" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="R7" t="n">
-        <v>821.0416925688844</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="S7" t="n">
-        <v>821.0416925688844</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="T7" t="n">
-        <v>585.3226407371185</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="U7" t="n">
-        <v>299.8838489790194</v>
+        <v>657.5114775397919</v>
       </c>
       <c r="V7" t="n">
-        <v>43.49565939475497</v>
+        <v>391.5321323606162</v>
       </c>
       <c r="W7" t="n">
-        <v>43.49565939475497</v>
+        <v>108.2017302917938</v>
       </c>
       <c r="X7" t="n">
-        <v>43.49565939475497</v>
+        <v>108.2017302917938</v>
       </c>
       <c r="Y7" t="n">
-        <v>43.49565939475497</v>
+        <v>41.50324675633845</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1654.529915207016</v>
+        <v>986.2431031906915</v>
       </c>
       <c r="C8" t="n">
-        <v>1261.354413709946</v>
+        <v>593.067601693622</v>
       </c>
       <c r="D8" t="n">
-        <v>875.9132849266141</v>
+        <v>207.6264729102897</v>
       </c>
       <c r="E8" t="n">
-        <v>473.3297600431586</v>
+        <v>207.6264729102897</v>
       </c>
       <c r="F8" t="n">
-        <v>56.43532157313638</v>
+        <v>194.7724384806716</v>
       </c>
       <c r="G8" t="n">
-        <v>47.31297010154361</v>
+        <v>185.6500870090788</v>
       </c>
       <c r="H8" t="n">
-        <v>47.31297010154361</v>
+        <v>185.6500870090788</v>
       </c>
       <c r="I8" t="n">
         <v>47.31297010154361</v>
@@ -4817,7 +4817,7 @@
         <v>1973.427801529577</v>
       </c>
       <c r="O8" t="n">
-        <v>2365.64850507718</v>
+        <v>2017.461012945658</v>
       </c>
       <c r="P8" t="n">
         <v>2365.64850507718</v>
@@ -4826,28 +4826,28 @@
         <v>2365.64850507718</v>
       </c>
       <c r="R8" t="n">
-        <v>2365.64850507718</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="S8" t="n">
-        <v>2365.64850507718</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="T8" t="n">
-        <v>2365.64850507718</v>
+        <v>2104.154988922119</v>
       </c>
       <c r="U8" t="n">
-        <v>2109.895775511779</v>
+        <v>1848.402259356717</v>
       </c>
       <c r="V8" t="n">
-        <v>2109.895775511779</v>
+        <v>1506.295450060236</v>
       </c>
       <c r="W8" t="n">
-        <v>2109.895775511779</v>
+        <v>1506.295450060236</v>
       </c>
       <c r="X8" t="n">
-        <v>2109.895775511779</v>
+        <v>1116.842844993293</v>
       </c>
       <c r="Y8" t="n">
-        <v>2055.024660918413</v>
+        <v>986.2431031906915</v>
       </c>
     </row>
     <row r="9">
@@ -4881,19 +4881,19 @@
         <v>47.31297010154367</v>
       </c>
       <c r="J9" t="n">
-        <v>160.4279523212711</v>
+        <v>47.31297010154367</v>
       </c>
       <c r="K9" t="n">
-        <v>480.1670983834975</v>
+        <v>367.0521161637701</v>
       </c>
       <c r="L9" t="n">
-        <v>963.7331842818107</v>
+        <v>850.6182020620834</v>
       </c>
       <c r="M9" t="n">
-        <v>1209.141762214911</v>
+        <v>850.6182020620834</v>
       </c>
       <c r="N9" t="n">
-        <v>1209.141762214911</v>
+        <v>1436.116207068686</v>
       </c>
       <c r="O9" t="n">
         <v>1725.662044805892</v>
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>679.3035256636736</v>
+        <v>372.9966390740605</v>
       </c>
       <c r="C10" t="n">
-        <v>679.3035256636736</v>
+        <v>202.7915211400496</v>
       </c>
       <c r="D10" t="n">
-        <v>523.6704125661884</v>
+        <v>202.7915211400496</v>
       </c>
       <c r="E10" t="n">
-        <v>368.1116004253909</v>
+        <v>202.7915211400496</v>
       </c>
       <c r="F10" t="n">
-        <v>210.7856656383638</v>
+        <v>202.7915211400496</v>
       </c>
       <c r="G10" t="n">
-        <v>210.7856656383638</v>
+        <v>202.7915211400496</v>
       </c>
       <c r="H10" t="n">
-        <v>210.7856656383638</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I10" t="n">
-        <v>77.69124027544166</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J10" t="n">
         <v>47.31297010154361</v>
@@ -5002,10 +5002,10 @@
         <v>948.7599926430961</v>
       </c>
       <c r="X10" t="n">
-        <v>864.5115443549748</v>
+        <v>714.6796704260792</v>
       </c>
       <c r="Y10" t="n">
-        <v>864.5115443549748</v>
+        <v>558.2046577653617</v>
       </c>
     </row>
     <row r="11">
@@ -5015,34 +5015,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1711.843491816804</v>
+        <v>1769.879336723576</v>
       </c>
       <c r="C11" t="n">
-        <v>1711.843491816804</v>
+        <v>1448.5001103727</v>
       </c>
       <c r="D11" t="n">
-        <v>1398.198638179665</v>
+        <v>1398.198638179666</v>
       </c>
       <c r="E11" t="n">
         <v>1067.411388442404</v>
       </c>
       <c r="F11" t="n">
-        <v>722.3132251185754</v>
+        <v>722.3132251185756</v>
       </c>
       <c r="G11" t="n">
-        <v>380.9467447527724</v>
+        <v>380.9467447527725</v>
       </c>
       <c r="H11" t="n">
-        <v>128.6599694654569</v>
+        <v>128.659969465457</v>
       </c>
       <c r="I11" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411573</v>
       </c>
       <c r="J11" t="n">
-        <v>206.7689006129436</v>
+        <v>206.7689006129438</v>
       </c>
       <c r="K11" t="n">
-        <v>565.7512566404055</v>
+        <v>565.7512566404057</v>
       </c>
       <c r="L11" t="n">
         <v>1059.071548358934</v>
@@ -5069,22 +5069,22 @@
         <v>3011.239105293021</v>
       </c>
       <c r="T11" t="n">
-        <v>2859.534777998631</v>
+        <v>3011.239105293021</v>
       </c>
       <c r="U11" t="n">
-        <v>2675.578323579424</v>
+        <v>3011.239105293021</v>
       </c>
       <c r="V11" t="n">
-        <v>2675.578323579424</v>
+        <v>2740.928571142733</v>
       </c>
       <c r="W11" t="n">
-        <v>2376.375563693905</v>
+        <v>2740.928571142733</v>
       </c>
       <c r="X11" t="n">
-        <v>2365.236396315212</v>
+        <v>2423.272241221984</v>
       </c>
       <c r="Y11" t="n">
-        <v>2040.541962382007</v>
+        <v>2098.577807288779</v>
       </c>
     </row>
     <row r="12">
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>327.7888419916217</v>
+        <v>244.364808443224</v>
       </c>
       <c r="C13" t="n">
-        <v>327.7888419916217</v>
+        <v>145.9559656554069</v>
       </c>
       <c r="D13" t="n">
-        <v>327.7888419916217</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="E13" t="n">
-        <v>327.7888419916217</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="F13" t="n">
-        <v>242.2591823507885</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="G13" t="n">
-        <v>145.8014035964277</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H13" t="n">
         <v>62.11912770411553</v>
@@ -5197,16 +5197,16 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J13" t="n">
-        <v>102.7129143774626</v>
+        <v>102.7129143774625</v>
       </c>
       <c r="K13" t="n">
-        <v>254.9154847581891</v>
+        <v>254.9154847581889</v>
       </c>
       <c r="L13" t="n">
-        <v>489.4106539027734</v>
+        <v>489.4106539027732</v>
       </c>
       <c r="M13" t="n">
-        <v>746.0697615118221</v>
+        <v>746.0697615118219</v>
       </c>
       <c r="N13" t="n">
         <v>999.6269248138158</v>
@@ -5221,28 +5221,28 @@
         <v>1496.732641814507</v>
       </c>
       <c r="R13" t="n">
-        <v>1474.919647536077</v>
+        <v>1444.627927593278</v>
       </c>
       <c r="S13" t="n">
-        <v>1343.899838864821</v>
+        <v>1444.627927593278</v>
       </c>
       <c r="T13" t="n">
-        <v>1179.977062179249</v>
+        <v>1280.705150907706</v>
       </c>
       <c r="U13" t="n">
-        <v>966.3345455673435</v>
+        <v>1067.062634295801</v>
       </c>
       <c r="V13" t="n">
-        <v>966.3345455673435</v>
+        <v>872.879564262819</v>
       </c>
       <c r="W13" t="n">
-        <v>754.800418644715</v>
+        <v>661.3454373401905</v>
       </c>
       <c r="X13" t="n">
-        <v>592.516371573892</v>
+        <v>499.0613902693675</v>
       </c>
       <c r="Y13" t="n">
-        <v>441.2005855367291</v>
+        <v>347.7456042322048</v>
       </c>
     </row>
     <row r="14">
@@ -5252,25 +5252,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1547.389404957965</v>
+        <v>1381.056242079542</v>
       </c>
       <c r="C14" t="n">
-        <v>1226.010178607089</v>
+        <v>1381.056242079542</v>
       </c>
       <c r="D14" t="n">
-        <v>912.365324969951</v>
+        <v>1067.411388442404</v>
       </c>
       <c r="E14" t="n">
-        <v>912.365324969951</v>
+        <v>1067.411388442404</v>
       </c>
       <c r="F14" t="n">
-        <v>567.2671616461225</v>
+        <v>722.3132251185755</v>
       </c>
       <c r="G14" t="n">
         <v>380.9467447527724</v>
       </c>
       <c r="H14" t="n">
-        <v>128.6599694654569</v>
+        <v>128.6599694654568</v>
       </c>
       <c r="I14" t="n">
         <v>62.11912770411553</v>
@@ -5288,7 +5288,7 @@
         <v>1605.072448403515</v>
       </c>
       <c r="N14" t="n">
-        <v>2132.883732040978</v>
+        <v>2132.883732040977</v>
       </c>
       <c r="O14" t="n">
         <v>2572.923332933306</v>
@@ -5303,25 +5303,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S14" t="n">
-        <v>3105.956385205776</v>
+        <v>3011.239105293021</v>
       </c>
       <c r="T14" t="n">
-        <v>2954.252057911387</v>
+        <v>2859.534777998631</v>
       </c>
       <c r="U14" t="n">
-        <v>2770.295603492179</v>
+        <v>2675.578323579424</v>
       </c>
       <c r="V14" t="n">
-        <v>2499.985069341892</v>
+        <v>2405.267789429136</v>
       </c>
       <c r="W14" t="n">
-        <v>2200.782309456373</v>
+        <v>2106.065029543618</v>
       </c>
       <c r="X14" t="n">
-        <v>2200.782309456373</v>
+        <v>1788.408699622868</v>
       </c>
       <c r="Y14" t="n">
-        <v>1876.087875523168</v>
+        <v>1709.754712644745</v>
       </c>
     </row>
     <row r="15">
@@ -5355,22 +5355,22 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J15" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K15" t="n">
-        <v>346.0196676966397</v>
+        <v>112.6101842924878</v>
       </c>
       <c r="L15" t="n">
-        <v>346.0196676966397</v>
+        <v>596.176270190801</v>
       </c>
       <c r="M15" t="n">
-        <v>973.7913173233209</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="N15" t="n">
-        <v>1629.56928853388</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O15" t="n">
-        <v>2146.089571124861</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P15" t="n">
         <v>2146.089571124861</v>
@@ -5410,46 +5410,46 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>448.7226219791493</v>
+        <v>410.9088655939298</v>
       </c>
       <c r="C16" t="n">
-        <v>350.3137791913323</v>
+        <v>312.500022806113</v>
       </c>
       <c r="D16" t="n">
-        <v>350.3137791913323</v>
+        <v>228.6631848548216</v>
       </c>
       <c r="E16" t="n">
-        <v>350.3137791913323</v>
+        <v>228.6631848548216</v>
       </c>
       <c r="F16" t="n">
-        <v>264.7841195504992</v>
+        <v>228.6631848548216</v>
       </c>
       <c r="G16" t="n">
-        <v>168.3263407961385</v>
+        <v>145.8014035964277</v>
       </c>
       <c r="H16" t="n">
-        <v>123.4172779208438</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I16" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J16" t="n">
-        <v>102.7129143774626</v>
+        <v>102.7129143774627</v>
       </c>
       <c r="K16" t="n">
-        <v>254.9154847581891</v>
+        <v>254.915484758189</v>
       </c>
       <c r="L16" t="n">
-        <v>489.4106539027734</v>
+        <v>489.4106539027733</v>
       </c>
       <c r="M16" t="n">
-        <v>746.0697615118221</v>
+        <v>746.069761511822</v>
       </c>
       <c r="N16" t="n">
-        <v>999.6269248138159</v>
+        <v>999.6269248138158</v>
       </c>
       <c r="O16" t="n">
-        <v>1232.699221126309</v>
+        <v>1232.699221126308</v>
       </c>
       <c r="P16" t="n">
         <v>1422.942916173672</v>
@@ -5458,28 +5458,28 @@
         <v>1496.732641814507</v>
       </c>
       <c r="R16" t="n">
-        <v>1496.732641814507</v>
+        <v>1444.627927593278</v>
       </c>
       <c r="S16" t="n">
-        <v>1496.732641814507</v>
+        <v>1313.608118922021</v>
       </c>
       <c r="T16" t="n">
-        <v>1332.809865128935</v>
+        <v>1149.685342236449</v>
       </c>
       <c r="U16" t="n">
-        <v>1119.16734851703</v>
+        <v>936.0428256245441</v>
       </c>
       <c r="V16" t="n">
-        <v>924.984278484048</v>
+        <v>936.0428256245441</v>
       </c>
       <c r="W16" t="n">
-        <v>713.4501515614195</v>
+        <v>724.5086987019156</v>
       </c>
       <c r="X16" t="n">
-        <v>713.4501515614195</v>
+        <v>562.2246516310926</v>
       </c>
       <c r="Y16" t="n">
-        <v>562.1343655242567</v>
+        <v>410.9088655939298</v>
       </c>
     </row>
     <row r="17">
@@ -5498,34 +5498,34 @@
         <v>1098.796330498592</v>
       </c>
       <c r="E17" t="n">
-        <v>827.8895422975452</v>
+        <v>827.8895422975454</v>
       </c>
       <c r="F17" t="n">
-        <v>542.6718405099314</v>
+        <v>542.6718405099318</v>
       </c>
       <c r="G17" t="n">
         <v>261.1858216803431</v>
       </c>
       <c r="H17" t="n">
-        <v>68.77950792924221</v>
+        <v>68.77950792924219</v>
       </c>
       <c r="I17" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J17" t="n">
-        <v>206.7689006129444</v>
+        <v>206.7689006129436</v>
       </c>
       <c r="K17" t="n">
-        <v>565.7512566404062</v>
+        <v>565.7512566404055</v>
       </c>
       <c r="L17" t="n">
-        <v>1059.071548358935</v>
+        <v>1059.071548358934</v>
       </c>
       <c r="M17" t="n">
         <v>1605.072448403515</v>
       </c>
       <c r="N17" t="n">
-        <v>2132.883732040978</v>
+        <v>2132.883732040977</v>
       </c>
       <c r="O17" t="n">
         <v>2572.923332933306</v>
@@ -5537,10 +5537,10 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R17" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205777</v>
       </c>
       <c r="S17" t="n">
-        <v>3071.119566829235</v>
+        <v>3071.119566829236</v>
       </c>
       <c r="T17" t="n">
         <v>2979.295701071061</v>
@@ -5552,13 +5552,13 @@
         <v>2644.789635573994</v>
       </c>
       <c r="W17" t="n">
-        <v>2405.46733722469</v>
+        <v>2405.467337224691</v>
       </c>
       <c r="X17" t="n">
         <v>2147.691468840156</v>
       </c>
       <c r="Y17" t="n">
-        <v>1882.877496443165</v>
+        <v>1882.877496443166</v>
       </c>
     </row>
     <row r="18">
@@ -5592,22 +5592,22 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J18" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K18" t="n">
-        <v>494.9732559860694</v>
+        <v>381.858273766342</v>
       </c>
       <c r="L18" t="n">
-        <v>978.5393418843826</v>
+        <v>865.4243596646552</v>
       </c>
       <c r="M18" t="n">
-        <v>1223.947919817482</v>
+        <v>1493.196009291336</v>
       </c>
       <c r="N18" t="n">
-        <v>1223.947919817482</v>
+        <v>1629.56928853388</v>
       </c>
       <c r="O18" t="n">
-        <v>1740.468202408463</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="P18" t="n">
         <v>2146.089571124861</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>235.9319791885592</v>
+        <v>235.931979188559</v>
       </c>
       <c r="C19" t="n">
-        <v>197.4035979369569</v>
+        <v>197.4035979369568</v>
       </c>
       <c r="D19" t="n">
-        <v>173.4472215218802</v>
+        <v>173.44722152188</v>
       </c>
       <c r="E19" t="n">
-        <v>149.5651460634912</v>
+        <v>149.5651460634911</v>
       </c>
       <c r="F19" t="n">
         <v>123.9159479588726</v>
       </c>
       <c r="G19" t="n">
-        <v>87.33863074072667</v>
+        <v>87.33863074072661</v>
       </c>
       <c r="H19" t="n">
-        <v>63.53681638462914</v>
+        <v>63.53681638462912</v>
       </c>
       <c r="I19" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J19" t="n">
-        <v>161.4017547291066</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K19" t="n">
-        <v>278.5901810446693</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L19" t="n">
-        <v>442.7178209184691</v>
+        <v>437.1381783102858</v>
       </c>
       <c r="M19" t="n">
-        <v>629.0093992567331</v>
+        <v>623.4297566485498</v>
       </c>
       <c r="N19" t="n">
-        <v>812.1990332879423</v>
+        <v>806.6193906797589</v>
       </c>
       <c r="O19" t="n">
-        <v>974.9038003296503</v>
+        <v>969.3241577214669</v>
       </c>
       <c r="P19" t="n">
-        <v>1094.779966106229</v>
+        <v>1089.200323498045</v>
       </c>
       <c r="Q19" t="n">
-        <v>1098.20216247628</v>
+        <v>1092.622519868096</v>
       </c>
       <c r="R19" t="n">
-        <v>1098.20216247628</v>
+        <v>1098.202162476279</v>
       </c>
       <c r="S19" t="n">
-        <v>1027.062815341238</v>
+        <v>1027.062815341237</v>
       </c>
       <c r="T19" t="n">
-        <v>923.0205001918803</v>
+        <v>923.0205001918799</v>
       </c>
       <c r="U19" t="n">
-        <v>769.2584451161897</v>
+        <v>769.2584451161894</v>
       </c>
       <c r="V19" t="n">
-        <v>634.9558366194225</v>
+        <v>634.9558366194221</v>
       </c>
       <c r="W19" t="n">
-        <v>483.3021712330086</v>
+        <v>483.3021712330083</v>
       </c>
       <c r="X19" t="n">
-        <v>380.8985856984002</v>
+        <v>380.8985856983999</v>
       </c>
       <c r="Y19" t="n">
-        <v>289.463261197452</v>
+        <v>289.4632611974517</v>
       </c>
     </row>
     <row r="20">
@@ -5732,28 +5732,28 @@
         <v>1352.560722599516</v>
       </c>
       <c r="D20" t="n">
-        <v>1098.796330498593</v>
+        <v>1098.796330498592</v>
       </c>
       <c r="E20" t="n">
-        <v>827.8895422975456</v>
+        <v>827.8895422975452</v>
       </c>
       <c r="F20" t="n">
-        <v>542.6718405099318</v>
+        <v>542.6718405099314</v>
       </c>
       <c r="G20" t="n">
-        <v>261.1858216803435</v>
+        <v>261.185821680343</v>
       </c>
       <c r="H20" t="n">
-        <v>68.7795079292424</v>
+        <v>68.77950792924224</v>
       </c>
       <c r="I20" t="n">
-        <v>62.11912770411573</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J20" t="n">
-        <v>206.7689006129438</v>
+        <v>206.7689006129436</v>
       </c>
       <c r="K20" t="n">
-        <v>565.7512566404057</v>
+        <v>565.7512566404055</v>
       </c>
       <c r="L20" t="n">
         <v>1059.071548358934</v>
@@ -5771,13 +5771,13 @@
         <v>2921.110825064828</v>
       </c>
       <c r="Q20" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205777</v>
       </c>
       <c r="R20" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205777</v>
       </c>
       <c r="S20" t="n">
-        <v>3071.119566829235</v>
+        <v>3071.119566829236</v>
       </c>
       <c r="T20" t="n">
         <v>2979.295701071061</v>
@@ -5795,7 +5795,7 @@
         <v>2147.691468840156</v>
       </c>
       <c r="Y20" t="n">
-        <v>1882.877496443165</v>
+        <v>1882.877496443166</v>
       </c>
     </row>
     <row r="21">
@@ -5832,22 +5832,22 @@
         <v>175.2341099238429</v>
       </c>
       <c r="K21" t="n">
-        <v>494.9732559860694</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="L21" t="n">
-        <v>978.5393418843826</v>
+        <v>658.8001958221562</v>
       </c>
       <c r="M21" t="n">
-        <v>1606.310991511064</v>
+        <v>802.5350401618138</v>
       </c>
       <c r="N21" t="n">
-        <v>1606.310991511064</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="O21" t="n">
-        <v>1740.468202408463</v>
+        <v>1974.833293963354</v>
       </c>
       <c r="P21" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q21" t="n">
         <v>2380.454662679751</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>235.9319791885592</v>
+        <v>235.9319791885594</v>
       </c>
       <c r="C22" t="n">
-        <v>197.4035979369569</v>
+        <v>197.4035979369571</v>
       </c>
       <c r="D22" t="n">
-        <v>173.4472215218802</v>
+        <v>173.4472215218803</v>
       </c>
       <c r="E22" t="n">
-        <v>149.5651460634912</v>
+        <v>149.5651460634913</v>
       </c>
       <c r="F22" t="n">
-        <v>123.9159479588726</v>
+        <v>123.9159479588727</v>
       </c>
       <c r="G22" t="n">
-        <v>87.33863074072667</v>
+        <v>87.33863074072673</v>
       </c>
       <c r="H22" t="n">
-        <v>63.53681638462914</v>
+        <v>63.53681638462918</v>
       </c>
       <c r="I22" t="n">
         <v>62.11912770411553</v>
@@ -5914,22 +5914,22 @@
         <v>143.9541688140574</v>
       </c>
       <c r="L22" t="n">
-        <v>308.0818086878572</v>
+        <v>437.1381783102856</v>
       </c>
       <c r="M22" t="n">
-        <v>499.9530296343044</v>
+        <v>623.4297566485496</v>
       </c>
       <c r="N22" t="n">
-        <v>683.1426636655136</v>
+        <v>806.6193906797589</v>
       </c>
       <c r="O22" t="n">
-        <v>974.9038003296503</v>
+        <v>969.3241577214669</v>
       </c>
       <c r="P22" t="n">
-        <v>1094.779966106229</v>
+        <v>1089.200323498045</v>
       </c>
       <c r="Q22" t="n">
-        <v>1098.20216247628</v>
+        <v>1092.622519868096</v>
       </c>
       <c r="R22" t="n">
         <v>1098.20216247628</v>
@@ -5938,22 +5938,22 @@
         <v>1027.062815341238</v>
       </c>
       <c r="T22" t="n">
-        <v>923.0205001918803</v>
+        <v>923.0205001918806</v>
       </c>
       <c r="U22" t="n">
-        <v>769.2584451161897</v>
+        <v>769.25844511619</v>
       </c>
       <c r="V22" t="n">
-        <v>634.9558366194225</v>
+        <v>634.9558366194227</v>
       </c>
       <c r="W22" t="n">
-        <v>483.3021712330086</v>
+        <v>483.3021712330088</v>
       </c>
       <c r="X22" t="n">
-        <v>380.8985856984002</v>
+        <v>380.8985856984004</v>
       </c>
       <c r="Y22" t="n">
-        <v>289.463261197452</v>
+        <v>289.4632611974523</v>
       </c>
     </row>
     <row r="23">
@@ -5981,7 +5981,7 @@
         <v>261.185821680343</v>
       </c>
       <c r="H23" t="n">
-        <v>68.77950792924221</v>
+        <v>68.77950792924223</v>
       </c>
       <c r="I23" t="n">
         <v>62.11912770411553</v>
@@ -6008,13 +6008,13 @@
         <v>2921.110825064828</v>
       </c>
       <c r="Q23" t="n">
-        <v>3105.956385205777</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="R23" t="n">
-        <v>3105.956385205777</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S23" t="n">
-        <v>3071.119566829236</v>
+        <v>3071.119566829235</v>
       </c>
       <c r="T23" t="n">
         <v>2979.295701071061</v>
@@ -6066,22 +6066,22 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J24" t="n">
-        <v>175.2341099238429</v>
+        <v>96.81867335321709</v>
       </c>
       <c r="K24" t="n">
-        <v>494.9732559860694</v>
+        <v>96.81867335321709</v>
       </c>
       <c r="L24" t="n">
-        <v>978.5393418843826</v>
+        <v>580.3847592515303</v>
       </c>
       <c r="M24" t="n">
-        <v>1458.313011372373</v>
+        <v>1208.156408878212</v>
       </c>
       <c r="N24" t="n">
-        <v>1458.313011372373</v>
+        <v>1863.93438008877</v>
       </c>
       <c r="O24" t="n">
-        <v>1974.833293963354</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="P24" t="n">
         <v>2380.454662679751</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>235.9319791885592</v>
+        <v>235.9319791885594</v>
       </c>
       <c r="C25" t="n">
-        <v>197.4035979369569</v>
+        <v>197.4035979369571</v>
       </c>
       <c r="D25" t="n">
-        <v>173.4472215218802</v>
+        <v>173.4472215218803</v>
       </c>
       <c r="E25" t="n">
-        <v>149.5651460634912</v>
+        <v>149.5651460634913</v>
       </c>
       <c r="F25" t="n">
-        <v>123.9159479588726</v>
+        <v>123.9159479588727</v>
       </c>
       <c r="G25" t="n">
-        <v>87.33863074072667</v>
+        <v>87.33863074072673</v>
       </c>
       <c r="H25" t="n">
-        <v>63.53681638462915</v>
+        <v>63.53681638462917</v>
       </c>
       <c r="I25" t="n">
         <v>62.11912770411553</v>
@@ -6157,16 +6157,16 @@
         <v>593.6560140511123</v>
       </c>
       <c r="N25" t="n">
-        <v>776.8456480823215</v>
+        <v>804.5780233445255</v>
       </c>
       <c r="O25" t="n">
-        <v>939.5504151240295</v>
+        <v>967.2827903862335</v>
       </c>
       <c r="P25" t="n">
-        <v>1059.426580900608</v>
+        <v>1087.158956162812</v>
       </c>
       <c r="Q25" t="n">
-        <v>1090.581152532862</v>
+        <v>1090.581152532863</v>
       </c>
       <c r="R25" t="n">
         <v>1098.20216247628</v>
@@ -6175,22 +6175,22 @@
         <v>1027.062815341238</v>
       </c>
       <c r="T25" t="n">
-        <v>923.0205001918803</v>
+        <v>923.0205001918806</v>
       </c>
       <c r="U25" t="n">
-        <v>769.2584451161897</v>
+        <v>769.25844511619</v>
       </c>
       <c r="V25" t="n">
-        <v>634.9558366194225</v>
+        <v>634.9558366194227</v>
       </c>
       <c r="W25" t="n">
-        <v>483.3021712330086</v>
+        <v>483.3021712330088</v>
       </c>
       <c r="X25" t="n">
-        <v>380.8985856984002</v>
+        <v>380.8985856984004</v>
       </c>
       <c r="Y25" t="n">
-        <v>289.463261197452</v>
+        <v>289.4632611974523</v>
       </c>
     </row>
     <row r="26">
@@ -6209,55 +6209,55 @@
         <v>1293.722338718128</v>
       </c>
       <c r="E26" t="n">
-        <v>986.0794951218604</v>
+        <v>986.0794951218606</v>
       </c>
       <c r="F26" t="n">
-        <v>664.1257379390265</v>
+        <v>664.1257379390267</v>
       </c>
       <c r="G26" t="n">
-        <v>345.9036637142181</v>
+        <v>345.9036637142182</v>
       </c>
       <c r="H26" t="n">
         <v>116.7612945678971</v>
       </c>
       <c r="I26" t="n">
-        <v>73.36485894755029</v>
+        <v>73.36485894755026</v>
       </c>
       <c r="J26" t="n">
-        <v>311.0659935859517</v>
+        <v>247.9841471388008</v>
       </c>
       <c r="K26" t="n">
-        <v>670.0483496134135</v>
+        <v>606.9665031662627</v>
       </c>
       <c r="L26" t="n">
-        <v>1163.368641331942</v>
+        <v>1193.338156614365</v>
       </c>
       <c r="M26" t="n">
         <v>1739.339056658946</v>
       </c>
       <c r="N26" t="n">
-        <v>2360.201702025982</v>
+        <v>2360.201702025981</v>
       </c>
       <c r="O26" t="n">
-        <v>2893.292664647884</v>
+        <v>2893.292664647883</v>
       </c>
       <c r="P26" t="n">
-        <v>3334.531518508979</v>
+        <v>3334.531518508978</v>
       </c>
       <c r="Q26" t="n">
-        <v>3612.428440379501</v>
+        <v>3612.4284403795</v>
       </c>
       <c r="R26" t="n">
-        <v>3668.242947377514</v>
+        <v>3668.242947377513</v>
       </c>
       <c r="S26" t="n">
-        <v>3596.670073605753</v>
+        <v>3596.670073605752</v>
       </c>
       <c r="T26" t="n">
-        <v>3468.110152452358</v>
+        <v>3468.110152452357</v>
       </c>
       <c r="U26" t="n">
-        <v>3307.298104174145</v>
+        <v>3307.298104174144</v>
       </c>
       <c r="V26" t="n">
         <v>3060.131976164851</v>
@@ -6266,7 +6266,7 @@
         <v>2784.073622420327</v>
       </c>
       <c r="X26" t="n">
-        <v>2489.561698640573</v>
+        <v>2489.561698640572</v>
       </c>
       <c r="Y26" t="n">
         <v>2188.011670848362</v>
@@ -6279,13 +6279,13 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>872.7308420875813</v>
+        <v>872.7308420875812</v>
       </c>
       <c r="C27" t="n">
-        <v>722.0766116476735</v>
+        <v>722.0766116476734</v>
       </c>
       <c r="D27" t="n">
-        <v>591.9876442691539</v>
+        <v>591.9876442691537</v>
       </c>
       <c r="E27" t="n">
         <v>455.5411533800415</v>
@@ -6294,46 +6294,46 @@
         <v>331.1093472631733</v>
       </c>
       <c r="G27" t="n">
-        <v>211.0495293350378</v>
+        <v>211.0495293350377</v>
       </c>
       <c r="H27" t="n">
         <v>122.7521129356387</v>
       </c>
       <c r="I27" t="n">
-        <v>73.36485894755029</v>
+        <v>73.36485894755026</v>
       </c>
       <c r="J27" t="n">
-        <v>73.36485894755029</v>
+        <v>186.4798411672776</v>
       </c>
       <c r="K27" t="n">
-        <v>73.36485894755029</v>
+        <v>506.2189872295041</v>
       </c>
       <c r="L27" t="n">
-        <v>556.9309448458636</v>
+        <v>989.7850731278173</v>
       </c>
       <c r="M27" t="n">
-        <v>1184.702594472545</v>
+        <v>1235.193651060917</v>
       </c>
       <c r="N27" t="n">
-        <v>1840.480565683104</v>
+        <v>1235.193651060917</v>
       </c>
       <c r="O27" t="n">
-        <v>2357.000848274085</v>
+        <v>1751.713933651898</v>
       </c>
       <c r="P27" t="n">
-        <v>2391.700393923186</v>
+        <v>2157.335302368295</v>
       </c>
       <c r="Q27" t="n">
         <v>2391.700393923186</v>
       </c>
       <c r="R27" t="n">
-        <v>2367.783350821251</v>
+        <v>2367.78335082125</v>
       </c>
       <c r="S27" t="n">
-        <v>2232.85267372112</v>
+        <v>2232.852673721119</v>
       </c>
       <c r="T27" t="n">
-        <v>2055.868861920028</v>
+        <v>2055.868861920027</v>
       </c>
       <c r="U27" t="n">
         <v>1845.80571859867</v>
@@ -6342,13 +6342,13 @@
         <v>1623.265716969737</v>
       </c>
       <c r="W27" t="n">
-        <v>1393.148471103024</v>
+        <v>1393.148471103023</v>
       </c>
       <c r="X27" t="n">
         <v>1203.841393453035</v>
       </c>
       <c r="Y27" t="n">
-        <v>1024.527176528543</v>
+        <v>1024.527176528542</v>
       </c>
     </row>
     <row r="28">
@@ -6358,28 +6358,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>504.3300981985351</v>
+        <v>504.330098198535</v>
       </c>
       <c r="C28" t="n">
-        <v>429.0656615517127</v>
+        <v>429.0656615517126</v>
       </c>
       <c r="D28" t="n">
         <v>368.3732297414157</v>
       </c>
       <c r="E28" t="n">
-        <v>307.7550988878066</v>
+        <v>307.7550988878065</v>
       </c>
       <c r="F28" t="n">
-        <v>245.3698453879679</v>
+        <v>245.3698453879678</v>
       </c>
       <c r="G28" t="n">
         <v>172.0564727746017</v>
       </c>
       <c r="H28" t="n">
-        <v>111.5186030232841</v>
+        <v>111.518603023284</v>
       </c>
       <c r="I28" t="n">
-        <v>73.36485894755029</v>
+        <v>73.36485894755026</v>
       </c>
       <c r="J28" t="n">
         <v>136.6424780796861</v>
@@ -6421,13 +6421,13 @@
         <v>1050.298177210279</v>
       </c>
       <c r="W28" t="n">
-        <v>861.908456428645</v>
+        <v>861.9084564286447</v>
       </c>
       <c r="X28" t="n">
-        <v>722.7688154988164</v>
+        <v>722.7688154988163</v>
       </c>
       <c r="Y28" t="n">
-        <v>594.597435602648</v>
+        <v>594.5974356026479</v>
       </c>
     </row>
     <row r="29">
@@ -6473,16 +6473,16 @@
         <v>1988.523626565243</v>
       </c>
       <c r="N29" t="n">
-        <v>2609.386271932278</v>
+        <v>2602.118932483141</v>
       </c>
       <c r="O29" t="n">
-        <v>3049.425872824607</v>
+        <v>3135.209895105043</v>
       </c>
       <c r="P29" t="n">
-        <v>3397.613364956129</v>
+        <v>3483.397387236565</v>
       </c>
       <c r="Q29" t="n">
-        <v>3612.4284403795</v>
+        <v>3668.242947377513</v>
       </c>
       <c r="R29" t="n">
         <v>3668.242947377513</v>
@@ -6546,7 +6546,7 @@
         <v>506.2189872295041</v>
       </c>
       <c r="L30" t="n">
-        <v>607.4220014342354</v>
+        <v>989.7850731278173</v>
       </c>
       <c r="M30" t="n">
         <v>1235.193651060917</v>
@@ -6595,16 +6595,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>504.330098198535</v>
+        <v>504.3300981985345</v>
       </c>
       <c r="C31" t="n">
-        <v>429.0656615517126</v>
+        <v>429.0656615517122</v>
       </c>
       <c r="D31" t="n">
-        <v>368.3732297414157</v>
+        <v>368.3732297414155</v>
       </c>
       <c r="E31" t="n">
-        <v>307.7550988878065</v>
+        <v>307.7550988878064</v>
       </c>
       <c r="F31" t="n">
         <v>245.3698453879678</v>
@@ -6619,52 +6619,52 @@
         <v>73.36485894755026</v>
       </c>
       <c r="J31" t="n">
-        <v>136.6424780796862</v>
+        <v>136.6424780796859</v>
       </c>
       <c r="K31" t="n">
-        <v>311.5288809192015</v>
+        <v>311.5288809192008</v>
       </c>
       <c r="L31" t="n">
-        <v>568.7078825225744</v>
+        <v>568.7078825225736</v>
       </c>
       <c r="M31" t="n">
-        <v>848.0508225904118</v>
+        <v>848.050822590411</v>
       </c>
       <c r="N31" t="n">
-        <v>1124.291818351194</v>
+        <v>1124.291818351193</v>
       </c>
       <c r="O31" t="n">
-        <v>1380.047947122476</v>
+        <v>1380.047947122475</v>
       </c>
       <c r="P31" t="n">
-        <v>1592.975474628628</v>
+        <v>1592.975474628627</v>
       </c>
       <c r="Q31" t="n">
-        <v>1689.449032728252</v>
+        <v>1689.449032728251</v>
       </c>
       <c r="R31" t="n">
-        <v>1660.488724648017</v>
+        <v>1660.488724648016</v>
       </c>
       <c r="S31" t="n">
-        <v>1552.613322117755</v>
+        <v>1552.613322117754</v>
       </c>
       <c r="T31" t="n">
-        <v>1411.834951573177</v>
+        <v>1411.834951573176</v>
       </c>
       <c r="U31" t="n">
-        <v>1221.336841102267</v>
+        <v>1221.336841102266</v>
       </c>
       <c r="V31" t="n">
-        <v>1050.298177210279</v>
+        <v>1050.298177210278</v>
       </c>
       <c r="W31" t="n">
-        <v>861.9084564286452</v>
+        <v>861.9084564286443</v>
       </c>
       <c r="X31" t="n">
-        <v>722.7688154988166</v>
+        <v>722.7688154988158</v>
       </c>
       <c r="Y31" t="n">
-        <v>594.5974356026483</v>
+        <v>594.5974356026475</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1791.351124222131</v>
+        <v>1743.79887591859</v>
       </c>
       <c r="C32" t="n">
-        <v>1505.586185654425</v>
+        <v>1464.542485303046</v>
       </c>
       <c r="D32" t="n">
-        <v>1227.555619800458</v>
+        <v>1193.020467401238</v>
       </c>
       <c r="E32" t="n">
-        <v>932.3826578463668</v>
+        <v>904.3560533993082</v>
       </c>
       <c r="F32" t="n">
-        <v>622.8987823057091</v>
+        <v>601.3807258108111</v>
       </c>
       <c r="G32" t="n">
-        <v>317.1465897230769</v>
+        <v>302.1370811803395</v>
       </c>
       <c r="H32" t="n">
-        <v>100.4741022189322</v>
+        <v>91.97314162835511</v>
       </c>
       <c r="I32" t="n">
-        <v>69.54754824076163</v>
+        <v>67.5551356023451</v>
       </c>
       <c r="J32" t="n">
-        <v>319.47041387666</v>
+        <v>212.2049085111732</v>
       </c>
       <c r="K32" t="n">
-        <v>783.7258626311921</v>
+        <v>571.1872645386351</v>
       </c>
       <c r="L32" t="n">
-        <v>1277.046154349721</v>
+        <v>1064.507556257164</v>
       </c>
       <c r="M32" t="n">
-        <v>1823.047054394302</v>
+        <v>1610.508456301744</v>
       </c>
       <c r="N32" t="n">
-        <v>2350.858338031764</v>
+        <v>2218.616740534051</v>
       </c>
       <c r="O32" t="n">
-        <v>2790.897938924092</v>
+        <v>2658.656341426379</v>
       </c>
       <c r="P32" t="n">
-        <v>3139.085431055614</v>
+        <v>3006.843833557901</v>
       </c>
       <c r="Q32" t="n">
-        <v>3429.204083923633</v>
+        <v>3303.341514273833</v>
       </c>
       <c r="R32" t="n">
-        <v>3477.377412038081</v>
+        <v>3377.756780117255</v>
       </c>
       <c r="S32" t="n">
-        <v>3418.274419908496</v>
+        <v>3325.162335939831</v>
       </c>
       <c r="T32" t="n">
-        <v>3302.184380397277</v>
+        <v>3215.580844380774</v>
       </c>
       <c r="U32" t="n">
-        <v>3153.842213761241</v>
+        <v>3073.747225696898</v>
       </c>
       <c r="V32" t="n">
-        <v>2919.145967394124</v>
+        <v>2845.559527281941</v>
       </c>
       <c r="W32" t="n">
-        <v>2655.557495291775</v>
+        <v>2588.479603131754</v>
       </c>
       <c r="X32" t="n">
-        <v>2373.515453154197</v>
+        <v>2312.946108946336</v>
       </c>
       <c r="Y32" t="n">
-        <v>2084.435307004163</v>
+        <v>2030.374510748462</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>868.9135313807926</v>
+        <v>866.9211187423761</v>
       </c>
       <c r="C33" t="n">
-        <v>718.2593009408848</v>
+        <v>716.2668883024683</v>
       </c>
       <c r="D33" t="n">
-        <v>588.1703335623652</v>
+        <v>586.1779209239486</v>
       </c>
       <c r="E33" t="n">
-        <v>451.7238426732528</v>
+        <v>449.7314300348363</v>
       </c>
       <c r="F33" t="n">
-        <v>327.2920365563846</v>
+        <v>325.2996239179681</v>
       </c>
       <c r="G33" t="n">
-        <v>207.2322186282491</v>
+        <v>205.2398059898326</v>
       </c>
       <c r="H33" t="n">
-        <v>118.93480222885</v>
+        <v>116.9423895904335</v>
       </c>
       <c r="I33" t="n">
-        <v>69.54754824076163</v>
+        <v>67.5551356023451</v>
       </c>
       <c r="J33" t="n">
-        <v>182.662530460489</v>
+        <v>180.6701178220725</v>
       </c>
       <c r="K33" t="n">
-        <v>502.4016765227154</v>
+        <v>500.4092638842989</v>
       </c>
       <c r="L33" t="n">
-        <v>985.9677624210287</v>
+        <v>983.9753497826122</v>
       </c>
       <c r="M33" t="n">
-        <v>985.9677624210287</v>
+        <v>1229.383927715712</v>
       </c>
       <c r="N33" t="n">
-        <v>1231.376340354128</v>
+        <v>1229.383927715712</v>
       </c>
       <c r="O33" t="n">
-        <v>1747.89662294511</v>
+        <v>1745.904210306693</v>
       </c>
       <c r="P33" t="n">
-        <v>2153.517991661507</v>
+        <v>2151.525579023091</v>
       </c>
       <c r="Q33" t="n">
-        <v>2387.883083216398</v>
+        <v>2385.890670577981</v>
       </c>
       <c r="R33" t="n">
-        <v>2363.966040114462</v>
+        <v>2361.973627476046</v>
       </c>
       <c r="S33" t="n">
-        <v>2229.035363014331</v>
+        <v>2227.042950375915</v>
       </c>
       <c r="T33" t="n">
-        <v>2052.051551213239</v>
+        <v>2050.059138574823</v>
       </c>
       <c r="U33" t="n">
-        <v>1841.988407891881</v>
+        <v>1839.995995253465</v>
       </c>
       <c r="V33" t="n">
-        <v>1619.448406262948</v>
+        <v>1617.455993624532</v>
       </c>
       <c r="W33" t="n">
-        <v>1389.331160396235</v>
+        <v>1387.338747757819</v>
       </c>
       <c r="X33" t="n">
-        <v>1200.024082746247</v>
+        <v>1198.03167010783</v>
       </c>
       <c r="Y33" t="n">
-        <v>1020.709865821754</v>
+        <v>1018.717453183337</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>413.2236159965128</v>
+        <v>365.6713676929721</v>
       </c>
       <c r="C34" t="n">
-        <v>350.4290609918665</v>
+        <v>309.3853606404865</v>
       </c>
       <c r="D34" t="n">
-        <v>302.2065108237459</v>
+        <v>267.6713584245264</v>
       </c>
       <c r="E34" t="n">
-        <v>254.0582616123129</v>
+        <v>226.031657165254</v>
       </c>
       <c r="F34" t="n">
-        <v>204.1428897546505</v>
+        <v>182.6248332597522</v>
       </c>
       <c r="G34" t="n">
-        <v>143.2993987834606</v>
+        <v>128.2898902407229</v>
       </c>
       <c r="H34" t="n">
-        <v>95.23141067431915</v>
+        <v>86.73045008374204</v>
       </c>
       <c r="I34" t="n">
-        <v>69.54754824076163</v>
+        <v>67.5551356023451</v>
       </c>
       <c r="J34" t="n">
-        <v>145.0468983703944</v>
+        <v>67.5551356023451</v>
       </c>
       <c r="K34" t="n">
-        <v>332.1550322074065</v>
+        <v>149.390176712287</v>
       </c>
       <c r="L34" t="n">
-        <v>496.2826720812062</v>
+        <v>313.5178165860867</v>
       </c>
       <c r="M34" t="n">
-        <v>682.5742504194702</v>
+        <v>499.8093949243507</v>
       </c>
       <c r="N34" t="n">
-        <v>971.0369771777496</v>
+        <v>759.0249449603708</v>
       </c>
       <c r="O34" t="n">
-        <v>1239.014836946528</v>
+        <v>1033.381832577062</v>
       </c>
       <c r="P34" t="n">
-        <v>1377.418326649522</v>
+        <v>1264.910118928623</v>
       </c>
       <c r="Q34" t="n">
-        <v>1486.113615746643</v>
+        <v>1379.984435873657</v>
       </c>
       <c r="R34" t="n">
-        <v>1469.623189308585</v>
+        <v>1370.002557387759</v>
       </c>
       <c r="S34" t="n">
-        <v>1374.217668420499</v>
+        <v>1281.105584451834</v>
       </c>
       <c r="T34" t="n">
-        <v>1245.909179518097</v>
+        <v>1159.305643501593</v>
       </c>
       <c r="U34" t="n">
-        <v>1067.880950689363</v>
+        <v>987.7859626250192</v>
       </c>
       <c r="V34" t="n">
-        <v>909.3121684395517</v>
+        <v>835.7257283273686</v>
       </c>
       <c r="W34" t="n">
-        <v>733.3923293000939</v>
+        <v>666.3144371400714</v>
       </c>
       <c r="X34" t="n">
-        <v>606.7225700124416</v>
+        <v>546.1532258045796</v>
       </c>
       <c r="Y34" t="n">
-        <v>491.0210717584495</v>
+        <v>436.9602755027482</v>
       </c>
     </row>
     <row r="35">
@@ -6911,22 +6911,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1614.059487414177</v>
+        <v>1614.059487414178</v>
       </c>
       <c r="C35" t="n">
         <v>1352.560722599516</v>
       </c>
       <c r="D35" t="n">
-        <v>1098.796330498592</v>
+        <v>1098.796330498593</v>
       </c>
       <c r="E35" t="n">
-        <v>827.8895422975452</v>
+        <v>827.8895422975456</v>
       </c>
       <c r="F35" t="n">
-        <v>542.6718405099314</v>
+        <v>542.6718405099318</v>
       </c>
       <c r="G35" t="n">
-        <v>261.185821680343</v>
+        <v>261.1858216803435</v>
       </c>
       <c r="H35" t="n">
         <v>68.77950792924223</v>
@@ -6974,7 +6974,7 @@
         <v>2644.789635573994</v>
       </c>
       <c r="W35" t="n">
-        <v>2405.467337224691</v>
+        <v>2405.46733722469</v>
       </c>
       <c r="X35" t="n">
         <v>2147.691468840156</v>
@@ -7014,25 +7014,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J36" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K36" t="n">
-        <v>62.11912770411553</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L36" t="n">
-        <v>545.6852136024288</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M36" t="n">
-        <v>1173.45686322911</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="N36" t="n">
-        <v>1829.234834439669</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O36" t="n">
-        <v>2345.75511703065</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P36" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q36" t="n">
         <v>2380.454662679751</v>
@@ -7093,28 +7093,28 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J37" t="n">
-        <v>62.11912770411553</v>
+        <v>161.4017547291066</v>
       </c>
       <c r="K37" t="n">
-        <v>143.9541688140574</v>
+        <v>270.9691711012525</v>
       </c>
       <c r="L37" t="n">
-        <v>308.0818086878572</v>
+        <v>435.0968109750523</v>
       </c>
       <c r="M37" t="n">
-        <v>494.3733870261212</v>
+        <v>621.3883893133163</v>
       </c>
       <c r="N37" t="n">
-        <v>677.5630210573304</v>
+        <v>804.5780233445255</v>
       </c>
       <c r="O37" t="n">
-        <v>845.8474307072221</v>
+        <v>967.2827903862335</v>
       </c>
       <c r="P37" t="n">
-        <v>965.7235964838006</v>
+        <v>1087.158956162812</v>
       </c>
       <c r="Q37" t="n">
-        <v>1098.20216247628</v>
+        <v>1090.581152532863</v>
       </c>
       <c r="R37" t="n">
         <v>1098.20216247628</v>
@@ -7148,25 +7148,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1614.059487414178</v>
+        <v>1614.059487414177</v>
       </c>
       <c r="C38" t="n">
         <v>1352.560722599516</v>
       </c>
       <c r="D38" t="n">
-        <v>1098.796330498593</v>
+        <v>1098.796330498592</v>
       </c>
       <c r="E38" t="n">
-        <v>827.8895422975456</v>
+        <v>827.8895422975452</v>
       </c>
       <c r="F38" t="n">
-        <v>542.6718405099318</v>
+        <v>542.6718405099314</v>
       </c>
       <c r="G38" t="n">
-        <v>261.1858216803435</v>
+        <v>261.185821680343</v>
       </c>
       <c r="H38" t="n">
-        <v>68.77950792924223</v>
+        <v>68.7795079292422</v>
       </c>
       <c r="I38" t="n">
         <v>62.11912770411553</v>
@@ -7199,7 +7199,7 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S38" t="n">
-        <v>3071.119566829235</v>
+        <v>3071.119566829236</v>
       </c>
       <c r="T38" t="n">
         <v>2979.295701071061</v>
@@ -7208,7 +7208,7 @@
         <v>2855.219708188068</v>
       </c>
       <c r="V38" t="n">
-        <v>2644.789635573994</v>
+        <v>2644.789635573995</v>
       </c>
       <c r="W38" t="n">
         <v>2405.46733722469</v>
@@ -7217,7 +7217,7 @@
         <v>2147.691468840156</v>
       </c>
       <c r="Y38" t="n">
-        <v>1882.877496443166</v>
+        <v>1882.877496443165</v>
       </c>
     </row>
     <row r="39">
@@ -7260,10 +7260,10 @@
         <v>978.5393418843826</v>
       </c>
       <c r="M39" t="n">
-        <v>1606.310991511064</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="N39" t="n">
-        <v>1740.468202408463</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O39" t="n">
         <v>1740.468202408463</v>
@@ -7306,52 +7306,52 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>235.9319791885594</v>
+        <v>235.9319791885592</v>
       </c>
       <c r="C40" t="n">
-        <v>197.4035979369571</v>
+        <v>197.4035979369569</v>
       </c>
       <c r="D40" t="n">
-        <v>173.4472215218803</v>
+        <v>173.4472215218802</v>
       </c>
       <c r="E40" t="n">
-        <v>149.5651460634913</v>
+        <v>149.5651460634912</v>
       </c>
       <c r="F40" t="n">
-        <v>123.9159479588727</v>
+        <v>123.9159479588726</v>
       </c>
       <c r="G40" t="n">
-        <v>87.33863074072673</v>
+        <v>87.33863074072667</v>
       </c>
       <c r="H40" t="n">
-        <v>63.53681638462917</v>
+        <v>63.53681638462914</v>
       </c>
       <c r="I40" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J40" t="n">
-        <v>62.11912770411553</v>
+        <v>161.4017547291066</v>
       </c>
       <c r="K40" t="n">
-        <v>143.9541688140574</v>
+        <v>270.9691711012521</v>
       </c>
       <c r="L40" t="n">
-        <v>308.0818086878572</v>
+        <v>435.0968109750519</v>
       </c>
       <c r="M40" t="n">
-        <v>499.953029634305</v>
+        <v>621.3883893133159</v>
       </c>
       <c r="N40" t="n">
-        <v>812.1990332879427</v>
+        <v>804.578023344525</v>
       </c>
       <c r="O40" t="n">
-        <v>974.9038003296507</v>
+        <v>967.282790386233</v>
       </c>
       <c r="P40" t="n">
-        <v>1094.779966106229</v>
+        <v>1087.158956162812</v>
       </c>
       <c r="Q40" t="n">
-        <v>1098.20216247628</v>
+        <v>1090.581152532862</v>
       </c>
       <c r="R40" t="n">
         <v>1098.20216247628</v>
@@ -7360,22 +7360,22 @@
         <v>1027.062815341238</v>
       </c>
       <c r="T40" t="n">
-        <v>923.0205001918806</v>
+        <v>923.0205001918803</v>
       </c>
       <c r="U40" t="n">
-        <v>769.25844511619</v>
+        <v>769.2584451161897</v>
       </c>
       <c r="V40" t="n">
-        <v>634.9558366194227</v>
+        <v>634.9558366194225</v>
       </c>
       <c r="W40" t="n">
-        <v>483.3021712330088</v>
+        <v>483.3021712330086</v>
       </c>
       <c r="X40" t="n">
-        <v>380.8985856984004</v>
+        <v>380.8985856984002</v>
       </c>
       <c r="Y40" t="n">
-        <v>289.4632611974523</v>
+        <v>289.463261197452</v>
       </c>
     </row>
     <row r="41">
@@ -7385,25 +7385,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1614.059487414176</v>
+        <v>1614.059487414177</v>
       </c>
       <c r="C41" t="n">
-        <v>1352.560722599515</v>
+        <v>1352.560722599516</v>
       </c>
       <c r="D41" t="n">
         <v>1098.796330498592</v>
       </c>
       <c r="E41" t="n">
-        <v>827.8895422975447</v>
+        <v>827.8895422975452</v>
       </c>
       <c r="F41" t="n">
-        <v>542.6718405099309</v>
+        <v>542.6718405099314</v>
       </c>
       <c r="G41" t="n">
-        <v>261.1858216803425</v>
+        <v>261.185821680343</v>
       </c>
       <c r="H41" t="n">
-        <v>68.77950792924223</v>
+        <v>68.7795079292422</v>
       </c>
       <c r="I41" t="n">
         <v>62.11912770411553</v>
@@ -7442,16 +7442,16 @@
         <v>2979.295701071061</v>
       </c>
       <c r="U41" t="n">
-        <v>2855.219708188067</v>
+        <v>2855.219708188068</v>
       </c>
       <c r="V41" t="n">
-        <v>2644.789635573994</v>
+        <v>2644.789635573995</v>
       </c>
       <c r="W41" t="n">
-        <v>2405.46733722469</v>
+        <v>2405.467337224691</v>
       </c>
       <c r="X41" t="n">
-        <v>2147.691468840155</v>
+        <v>2147.691468840156</v>
       </c>
       <c r="Y41" t="n">
         <v>1882.877496443165</v>
@@ -7488,25 +7488,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J42" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K42" t="n">
-        <v>62.11912770411553</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L42" t="n">
-        <v>545.6852136024288</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M42" t="n">
-        <v>1173.45686322911</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="N42" t="n">
-        <v>1829.234834439669</v>
+        <v>1629.56928853388</v>
       </c>
       <c r="O42" t="n">
-        <v>2345.75511703065</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="P42" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q42" t="n">
         <v>2380.454662679751</v>
@@ -7543,46 +7543,46 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>235.9319791885594</v>
+        <v>235.9319791885592</v>
       </c>
       <c r="C43" t="n">
-        <v>197.4035979369571</v>
+        <v>197.4035979369569</v>
       </c>
       <c r="D43" t="n">
-        <v>173.4472215218803</v>
+        <v>173.4472215218802</v>
       </c>
       <c r="E43" t="n">
-        <v>149.5651460634913</v>
+        <v>149.5651460634912</v>
       </c>
       <c r="F43" t="n">
-        <v>123.9159479588727</v>
+        <v>123.9159479588726</v>
       </c>
       <c r="G43" t="n">
-        <v>87.33863074072673</v>
+        <v>87.33863074072667</v>
       </c>
       <c r="H43" t="n">
-        <v>63.53681638462917</v>
+        <v>63.53681638462914</v>
       </c>
       <c r="I43" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J43" t="n">
-        <v>62.11912770411553</v>
+        <v>67.69877031229885</v>
       </c>
       <c r="K43" t="n">
-        <v>149.5338114222412</v>
+        <v>278.5901810446693</v>
       </c>
       <c r="L43" t="n">
-        <v>313.661451296041</v>
+        <v>442.7178209184691</v>
       </c>
       <c r="M43" t="n">
-        <v>629.0093992567336</v>
+        <v>629.0093992567331</v>
       </c>
       <c r="N43" t="n">
-        <v>812.1990332879427</v>
+        <v>812.1990332879423</v>
       </c>
       <c r="O43" t="n">
-        <v>974.9038003296507</v>
+        <v>974.9038003296503</v>
       </c>
       <c r="P43" t="n">
         <v>1094.779966106229</v>
@@ -7597,22 +7597,22 @@
         <v>1027.062815341238</v>
       </c>
       <c r="T43" t="n">
-        <v>923.0205001918806</v>
+        <v>923.0205001918803</v>
       </c>
       <c r="U43" t="n">
-        <v>769.25844511619</v>
+        <v>769.2584451161897</v>
       </c>
       <c r="V43" t="n">
-        <v>634.9558366194227</v>
+        <v>634.9558366194225</v>
       </c>
       <c r="W43" t="n">
-        <v>483.3021712330088</v>
+        <v>483.3021712330086</v>
       </c>
       <c r="X43" t="n">
-        <v>380.8985856984004</v>
+        <v>380.8985856984002</v>
       </c>
       <c r="Y43" t="n">
-        <v>289.4632611974523</v>
+        <v>289.463261197452</v>
       </c>
     </row>
     <row r="44">
@@ -7725,16 +7725,16 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J45" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K45" t="n">
-        <v>381.858273766342</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L45" t="n">
-        <v>865.4243596646552</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M45" t="n">
-        <v>1223.947919817482</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="N45" t="n">
         <v>1223.947919817482</v>
@@ -7804,28 +7804,28 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J46" t="n">
-        <v>161.4017547291066</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K46" t="n">
-        <v>243.2367958390485</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L46" t="n">
-        <v>442.7178209184696</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M46" t="n">
-        <v>629.0093992567336</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N46" t="n">
-        <v>812.1990332879427</v>
+        <v>677.5630210573304</v>
       </c>
       <c r="O46" t="n">
-        <v>974.9038003296507</v>
+        <v>840.2677880990384</v>
       </c>
       <c r="P46" t="n">
-        <v>1094.779966106229</v>
+        <v>1089.200323498045</v>
       </c>
       <c r="Q46" t="n">
-        <v>1098.20216247628</v>
+        <v>1092.622519868096</v>
       </c>
       <c r="R46" t="n">
         <v>1098.20216247628</v>
@@ -7976,19 +7976,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>210.7551798924874</v>
+        <v>117.6798379423461</v>
       </c>
       <c r="K2" t="n">
         <v>143.0584031792374</v>
       </c>
       <c r="L2" t="n">
-        <v>153.2481697304917</v>
+        <v>373.6791200510544</v>
       </c>
       <c r="M2" t="n">
-        <v>693.4207940321644</v>
+        <v>668.5156360519579</v>
       </c>
       <c r="N2" t="n">
-        <v>682.2612020826953</v>
+        <v>667.9090757920147</v>
       </c>
       <c r="O2" t="n">
         <v>594.0482827698827</v>
@@ -7997,7 +7997,7 @@
         <v>502.0059847475129</v>
       </c>
       <c r="Q2" t="n">
-        <v>331.2113854294513</v>
+        <v>144.4986984183922</v>
       </c>
       <c r="R2" t="n">
         <v>102.5176150018526</v>
@@ -8055,25 +8055,25 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J3" t="n">
-        <v>137.6801864580948</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K3" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L3" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M3" t="n">
-        <v>636.0828644837489</v>
+        <v>611.1777065035425</v>
       </c>
       <c r="N3" t="n">
-        <v>629.0678552886037</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O3" t="n">
-        <v>614.4252180716981</v>
+        <v>406.9600960343016</v>
       </c>
       <c r="P3" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q3" t="n">
         <v>90.98815315591399</v>
@@ -8213,7 +8213,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>263.7907196684351</v>
+        <v>117.6798379423461</v>
       </c>
       <c r="K5" t="n">
         <v>505.666843611017</v>
@@ -8222,19 +8222,19 @@
         <v>651.5514946987026</v>
       </c>
       <c r="M5" t="n">
-        <v>693.4207940321644</v>
+        <v>149.7250515977273</v>
       </c>
       <c r="N5" t="n">
-        <v>682.2612020826953</v>
+        <v>667.9090757920147</v>
       </c>
       <c r="O5" t="n">
-        <v>218.5182021115914</v>
+        <v>594.0482827698827</v>
       </c>
       <c r="P5" t="n">
-        <v>150.3014472409252</v>
+        <v>193.6030671112566</v>
       </c>
       <c r="Q5" t="n">
-        <v>144.4986984183922</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R5" t="n">
         <v>102.5176150018526</v>
@@ -8292,28 +8292,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J6" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K6" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L6" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M6" t="n">
-        <v>561.0555281269429</v>
+        <v>210.8379091467833</v>
       </c>
       <c r="N6" t="n">
-        <v>85.37211285416666</v>
+        <v>604.1626973083972</v>
       </c>
       <c r="O6" t="n">
-        <v>614.4252180716981</v>
+        <v>611.4781433431195</v>
       </c>
       <c r="P6" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q6" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R6" t="n">
         <v>71.01380490566048</v>
@@ -8465,10 +8465,10 @@
         <v>682.2612020826953</v>
       </c>
       <c r="O8" t="n">
-        <v>545.7463662600596</v>
+        <v>194.0418287534719</v>
       </c>
       <c r="P8" t="n">
-        <v>150.3014472409252</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q8" t="n">
         <v>144.4986984183922</v>
@@ -8529,7 +8529,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J9" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K9" t="n">
         <v>412.5657697396227</v>
@@ -8538,13 +8538,13 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M9" t="n">
-        <v>340.274574506989</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N9" t="n">
-        <v>85.37211285416666</v>
+        <v>676.7842391234617</v>
       </c>
       <c r="O9" t="n">
-        <v>614.4252180716981</v>
+        <v>385.1581020577846</v>
       </c>
       <c r="P9" t="n">
         <v>496.801919078302</v>
@@ -9003,25 +9003,25 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J15" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K15" t="n">
-        <v>262.1075997502998</v>
+        <v>140.5980025943154</v>
       </c>
       <c r="L15" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M15" t="n">
         <v>726.4998994499999</v>
       </c>
       <c r="N15" t="n">
-        <v>747.7741039759435</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O15" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P15" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q15" t="n">
         <v>327.7205688679246</v>
@@ -9240,7 +9240,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J18" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K18" t="n">
         <v>412.5657697396227</v>
@@ -9249,16 +9249,16 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M18" t="n">
-        <v>340.2745745069883</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N18" t="n">
-        <v>85.37211285416666</v>
+        <v>223.122899967847</v>
       </c>
       <c r="O18" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P18" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q18" t="n">
         <v>327.7205688679246</v>
@@ -9419,7 +9419,7 @@
         <v>502.0059847475129</v>
       </c>
       <c r="Q20" t="n">
-        <v>331.2113854294513</v>
+        <v>331.2113854294519</v>
       </c>
       <c r="R20" t="n">
         <v>102.5176150018526</v>
@@ -9480,25 +9480,25 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K21" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L21" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M21" t="n">
-        <v>726.4998994499999</v>
+        <v>237.5738335035115</v>
       </c>
       <c r="N21" t="n">
-        <v>85.37211285416666</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O21" t="n">
-        <v>228.1998931286865</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P21" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q21" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R21" t="n">
         <v>71.01380490566048</v>
@@ -9656,7 +9656,7 @@
         <v>502.0059847475129</v>
       </c>
       <c r="Q23" t="n">
-        <v>331.2113854294519</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R23" t="n">
         <v>102.5176150018526</v>
@@ -9714,25 +9714,25 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J24" t="n">
-        <v>196.7020151310378</v>
+        <v>117.494503443537</v>
       </c>
       <c r="K24" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L24" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M24" t="n">
-        <v>577.006990218999</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N24" t="n">
-        <v>85.37211285416666</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O24" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P24" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q24" t="n">
         <v>90.98815315591399</v>
@@ -9951,28 +9951,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J27" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K27" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L27" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M27" t="n">
-        <v>726.4998994499999</v>
+        <v>340.274574506988</v>
       </c>
       <c r="N27" t="n">
-        <v>747.7741039759435</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O27" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P27" t="n">
-        <v>122.1334109295184</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q27" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R27" t="n">
         <v>71.01380490566048</v>
@@ -10194,10 +10194,10 @@
         <v>412.5657697396227</v>
       </c>
       <c r="L30" t="n">
-        <v>192.2856137303842</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M30" t="n">
-        <v>726.4998994499999</v>
+        <v>340.274574506988</v>
       </c>
       <c r="N30" t="n">
         <v>85.37211285416666</v>
@@ -10434,10 +10434,10 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M33" t="n">
-        <v>92.38712204931191</v>
+        <v>340.2745745069887</v>
       </c>
       <c r="N33" t="n">
-        <v>333.2595653118431</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O33" t="n">
         <v>614.4252180716981</v>
@@ -10662,28 +10662,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J36" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K36" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L36" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M36" t="n">
-        <v>726.4998994499999</v>
+        <v>340.2745745069883</v>
       </c>
       <c r="N36" t="n">
-        <v>747.7741039759435</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O36" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P36" t="n">
-        <v>122.133410929518</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q36" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R36" t="n">
         <v>71.01380490566048</v>
@@ -10908,13 +10908,13 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M39" t="n">
-        <v>726.4998994499999</v>
+        <v>340.2745745069883</v>
       </c>
       <c r="N39" t="n">
-        <v>220.8844470939643</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O39" t="n">
-        <v>92.68755888888889</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P39" t="n">
         <v>496.801919078302</v>
@@ -11136,10 +11136,10 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J42" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K42" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L42" t="n">
         <v>578.5109386733963</v>
@@ -11148,16 +11148,16 @@
         <v>726.4998994499999</v>
       </c>
       <c r="N42" t="n">
-        <v>747.7741039759435</v>
+        <v>108.8653421701425</v>
       </c>
       <c r="O42" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P42" t="n">
-        <v>122.133410929518</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q42" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R42" t="n">
         <v>71.01380490566048</v>
@@ -11373,7 +11373,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J45" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K45" t="n">
         <v>412.5657697396227</v>
@@ -11382,10 +11382,10 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M45" t="n">
-        <v>454.5321323046928</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N45" t="n">
-        <v>85.37211285416666</v>
+        <v>333.2595653118431</v>
       </c>
       <c r="O45" t="n">
         <v>614.4252180716981</v>
@@ -23258,10 +23258,10 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>318.1654340873667</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>260.7099476296622</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23309,19 +23309,19 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>150.1872840214456</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>182.1168898750154</v>
       </c>
       <c r="V11" t="n">
-        <v>267.6074288087849</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>296.2107322866635</v>
       </c>
       <c r="X11" t="n">
-        <v>303.4519909166358</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23413,28 +23413,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>9.930638278565382</v>
       </c>
       <c r="C13" t="n">
-        <v>97.42475435993876</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>82.99846957177849</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>82.9249116246576</v>
+        <v>82.92491162465758</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>84.67436304442485</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>95.49320096681699</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>82.84545313338903</v>
       </c>
       <c r="I13" t="n">
-        <v>60.68516871456097</v>
+        <v>60.68516871456096</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,10 +23461,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>29.98880274337132</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>129.7096105845442</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23473,7 +23473,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>192.2412393326521</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23495,19 +23495,19 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>318.1654340873667</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>327.479377239889</v>
+        <v>327.4793772398889</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>153.4956028377283</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -23543,7 +23543,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>93.77010711362803</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -23558,10 +23558,10 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>314.4797666215418</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>243.580042485531</v>
       </c>
     </row>
     <row r="15">
@@ -23650,28 +23650,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>112.2776261096563</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>82.99846957177849</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>82.9249116246576</v>
+        <v>82.92491162465758</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>84.67436304442485</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>13.46003752100702</v>
       </c>
       <c r="H16" t="n">
-        <v>38.3854808868473</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>60.68516871456096</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,10 +23698,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>51.58366707901689</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>129.7096105845442</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23710,13 +23710,13 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>192.2412393326521</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>160.6612066001148</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23798,7 +23798,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>-7.958078640513122e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1183277.713568381</v>
+        <v>1181473.0707271</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>1183277.713568381</v>
+        <v>1181473.0707271</v>
       </c>
     </row>
     <row r="4">
@@ -26311,13 +26311,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>144265.7424746854</v>
+        <v>144265.7424746855</v>
       </c>
       <c r="C2" t="n">
         <v>144265.7424746854</v>
       </c>
       <c r="D2" t="n">
-        <v>144265.7424746855</v>
+        <v>144265.7424746854</v>
       </c>
       <c r="E2" t="n">
         <v>127487.2187395205</v>
@@ -26326,7 +26326,7 @@
         <v>127487.2187395205</v>
       </c>
       <c r="G2" t="n">
-        <v>144265.7424746853</v>
+        <v>144265.7424746854</v>
       </c>
       <c r="H2" t="n">
         <v>144265.7424746854</v>
@@ -26338,10 +26338,10 @@
         <v>144265.7424746851</v>
       </c>
       <c r="K2" t="n">
-        <v>144265.7424746852</v>
+        <v>144265.7424746851</v>
       </c>
       <c r="L2" t="n">
-        <v>144265.7424746853</v>
+        <v>144265.7424746855</v>
       </c>
       <c r="M2" t="n">
         <v>144265.7424746854</v>
@@ -26350,10 +26350,10 @@
         <v>144265.7424746854</v>
       </c>
       <c r="O2" t="n">
-        <v>144265.7424746854</v>
+        <v>144265.7424746853</v>
       </c>
       <c r="P2" t="n">
-        <v>144265.7424746854</v>
+        <v>144265.7424746855</v>
       </c>
     </row>
     <row r="3">
@@ -26363,13 +26363,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>182204.9482918559</v>
+        <v>173858.6570340551</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>14822.14031062194</v>
+        <v>22558.42953401347</v>
       </c>
       <c r="E3" t="n">
         <v>112122.5614740445</v>
@@ -26378,7 +26378,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>47425.325536682</v>
+        <v>47425.32553668201</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,22 +26387,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>206802.1491945026</v>
+        <v>200285.8640399294</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>57301.47179728558</v>
+        <v>62456.24177539678</v>
       </c>
       <c r="M3" t="n">
-        <v>42200.82945962298</v>
+        <v>43252.52447081117</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-11</v>
       </c>
       <c r="O3" t="n">
-        <v>27767.69404277118</v>
+        <v>27767.6940427712</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,10 +26415,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>232424.3126138793</v>
+        <v>237331.8440488215</v>
       </c>
       <c r="C4" t="n">
-        <v>232424.3126138793</v>
+        <v>237331.8440488215</v>
       </c>
       <c r="D4" t="n">
         <v>223021.8565516675</v>
@@ -26442,10 +26442,10 @@
         <v>200019.6624326435</v>
       </c>
       <c r="K4" t="n">
-        <v>200019.6624326434</v>
+        <v>200019.6624326435</v>
       </c>
       <c r="L4" t="n">
-        <v>199764.0885321601</v>
+        <v>199630.6939231053</v>
       </c>
       <c r="M4" t="n">
         <v>199269.1699682603</v>
@@ -26467,10 +26467,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>66684.30114001376</v>
+        <v>65170.06753481722</v>
       </c>
       <c r="C5" t="n">
-        <v>66684.30114001376</v>
+        <v>65170.06753481722</v>
       </c>
       <c r="D5" t="n">
         <v>69585.45727717315</v>
@@ -26482,22 +26482,22 @@
         <v>53186.01969984052</v>
       </c>
       <c r="G5" t="n">
+        <v>58169.76931551968</v>
+      </c>
+      <c r="H5" t="n">
+        <v>58169.76931551967</v>
+      </c>
+      <c r="I5" t="n">
         <v>58169.76931551966</v>
       </c>
-      <c r="H5" t="n">
-        <v>58169.76931551966</v>
-      </c>
-      <c r="I5" t="n">
-        <v>58169.76931551967</v>
-      </c>
       <c r="J5" t="n">
-        <v>63659.04525391952</v>
+        <v>63659.0452539195</v>
       </c>
       <c r="K5" t="n">
         <v>63659.0452539195</v>
       </c>
       <c r="L5" t="n">
-        <v>61795.7362917385</v>
+        <v>60823.19813315423</v>
       </c>
       <c r="M5" t="n">
         <v>58169.76931551966</v>
@@ -26519,46 +26519,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-337047.8195710635</v>
+        <v>-332094.8261430084</v>
       </c>
       <c r="C6" t="n">
-        <v>-154842.8712792076</v>
+        <v>-158236.1691089533</v>
       </c>
       <c r="D6" t="n">
-        <v>-163163.7116647771</v>
+        <v>-170900.0008881687</v>
       </c>
       <c r="E6" t="n">
-        <v>-189331.6159110426</v>
+        <v>-189541.3474577322</v>
       </c>
       <c r="F6" t="n">
-        <v>-77209.05443699817</v>
+        <v>-77418.78598368769</v>
       </c>
       <c r="G6" t="n">
         <v>-160598.5223457767</v>
       </c>
       <c r="H6" t="n">
-        <v>-113173.1968090946</v>
+        <v>-113173.1968090945</v>
       </c>
       <c r="I6" t="n">
-        <v>-113173.1968090946</v>
+        <v>-113173.1968090945</v>
       </c>
       <c r="J6" t="n">
-        <v>-326215.1144063804</v>
+        <v>-319698.8292518073</v>
       </c>
       <c r="K6" t="n">
         <v>-119412.9652118778</v>
       </c>
       <c r="L6" t="n">
-        <v>-174595.5541464988</v>
+        <v>-178644.3913569708</v>
       </c>
       <c r="M6" t="n">
-        <v>-155374.0262687175</v>
+        <v>-156425.7212799057</v>
       </c>
       <c r="N6" t="n">
-        <v>-113173.1968090945</v>
+        <v>-113173.1968090947</v>
       </c>
       <c r="O6" t="n">
-        <v>-140940.8908518658</v>
+        <v>-140940.8908518659</v>
       </c>
       <c r="P6" t="n">
         <v>-113173.1968090945</v>
@@ -26692,10 +26692,10 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="F2" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="G2" t="n">
         <v>130.3599693155844</v>
@@ -26713,7 +26713,7 @@
         <v>93.99127447431646</v>
       </c>
       <c r="L2" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="M2" t="n">
         <v>130.3599693155844</v>
@@ -26787,10 +26787,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>543.6957424344371</v>
+        <v>518.7905844542306</v>
       </c>
       <c r="C4" t="n">
-        <v>543.6957424344371</v>
+        <v>518.7905844542306</v>
       </c>
       <c r="D4" t="n">
         <v>591.4121262692951</v>
@@ -26802,22 +26802,22 @@
         <v>776.4890963014441</v>
       </c>
       <c r="G4" t="n">
+        <v>776.4890963014442</v>
+      </c>
+      <c r="H4" t="n">
+        <v>776.4890963014442</v>
+      </c>
+      <c r="I4" t="n">
         <v>776.4890963014441</v>
       </c>
-      <c r="H4" t="n">
-        <v>776.4890963014441</v>
-      </c>
-      <c r="I4" t="n">
-        <v>776.4890963014442</v>
-      </c>
       <c r="J4" t="n">
-        <v>917.0607368443785</v>
+        <v>917.0607368443783</v>
       </c>
       <c r="K4" t="n">
         <v>917.0607368443783</v>
       </c>
       <c r="L4" t="n">
-        <v>869.3443530095203</v>
+        <v>844.4391950293139</v>
       </c>
       <c r="M4" t="n">
         <v>776.4890963014441</v>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>59.2816569208525</v>
+        <v>59.28165692085251</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,22 +26929,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>34.70961755346396</v>
+        <v>34.709617553464</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>71.62683974660698</v>
+        <v>78.07030221924597</v>
       </c>
       <c r="M2" t="n">
-        <v>24.02351201551345</v>
+        <v>17.58004954287446</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="O2" t="n">
-        <v>34.70961755346397</v>
+        <v>34.709617553464</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27009,13 +27009,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>543.6957424344371</v>
+        <v>518.7905844542306</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>47.71638383485799</v>
+        <v>72.62154181506446</v>
       </c>
       <c r="E4" t="n">
         <v>185.076970032149</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>684.2673829773714</v>
+        <v>659.3622249971648</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>92.22171332407275</v>
+        <v>117.1268713042792</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>59.2816569208525</v>
+        <v>59.28165692085251</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>34.70961755346396</v>
+        <v>34.709617553464</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27255,13 +27255,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>543.6957424344371</v>
+        <v>518.7905844542306</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>47.71638383485799</v>
+        <v>72.62154181506446</v>
       </c>
       <c r="M4" t="n">
         <v>185.076970032149</v>
@@ -27376,28 +27376,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>396.4897982542829</v>
+        <v>193.571733966757</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D2" t="n">
         <v>381.5867174954989</v>
       </c>
       <c r="E2" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,28 +27424,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>90.95936114212373</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T2" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>253.1952022697474</v>
       </c>
       <c r="V2" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X2" t="n">
         <v>385.5580790162737</v>
       </c>
       <c r="Y2" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27458,10 +27458,10 @@
         <v>150.2783710965517</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>131.5513083793497</v>
       </c>
       <c r="D3" t="n">
-        <v>34.89937128976443</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -27540,25 +27540,25 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E4" t="n">
         <v>154.0032240193895</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G4" t="n">
         <v>166.5715133615489</v>
       </c>
       <c r="H4" t="n">
-        <v>4.554235611693258</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I4" t="n">
         <v>131.7634811092929</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,28 +27582,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S4" t="n">
         <v>200.7879229792761</v>
       </c>
       <c r="T4" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>282.5844038405181</v>
+        <v>76.13417240419918</v>
       </c>
       <c r="V4" t="n">
         <v>263.319551727384</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X4" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27613,10 +27613,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>396.4897982542829</v>
+        <v>363.4433857222192</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D5" t="n">
         <v>381.5867174954989</v>
@@ -27634,7 +27634,7 @@
         <v>320.8422199291742</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,19 +27661,19 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T5" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>39.00920906490873</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27704,10 +27704,10 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>26.66263604343466</v>
       </c>
       <c r="G6" t="n">
-        <v>48.8699187027036</v>
+        <v>118.8592197488542</v>
       </c>
       <c r="H6" t="n">
         <v>87.41444223540508</v>
@@ -27819,28 +27819,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S7" t="n">
         <v>200.7879229792761</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>9.495244038962198</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>231.7395189948467</v>
       </c>
       <c r="Y7" t="n">
-        <v>220.8809405715231</v>
+        <v>154.8494418714223</v>
       </c>
     </row>
     <row r="8">
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27859,10 +27859,10 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
@@ -27871,7 +27871,7 @@
         <v>320.8422199291742</v>
       </c>
       <c r="I8" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,28 +27898,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>164.8484195083599</v>
       </c>
       <c r="T8" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>367.2890446813954</v>
       </c>
       <c r="X8" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>338.2033985411724</v>
+        <v>263.2320576040298</v>
       </c>
     </row>
     <row r="9">
@@ -28011,28 +28011,28 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G10" t="n">
         <v>166.5715133615489</v>
       </c>
       <c r="H10" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28074,10 +28074,10 @@
         <v>280.4970980481341</v>
       </c>
       <c r="X10" t="n">
-        <v>148.3335551896067</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>220.8809405715231</v>
+        <v>65.97067803741282</v>
       </c>
     </row>
     <row r="11">
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="C11" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="D11" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="E11" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="F11" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="G11" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="H11" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="I11" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S11" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="T11" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="U11" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="V11" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="W11" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="X11" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="Y11" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="C13" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="D13" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="E13" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="F13" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="G13" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="H13" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="I13" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="J13" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="K13" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="L13" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="M13" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="N13" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="O13" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="P13" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="Q13" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="R13" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="S13" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="T13" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="U13" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="V13" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="W13" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="X13" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="Y13" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="C14" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="D14" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="E14" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="F14" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="G14" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="H14" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="I14" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S14" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="T14" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="U14" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="V14" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="W14" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="X14" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="Y14" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="C16" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="D16" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="E16" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="F16" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="G16" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="H16" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="I16" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="J16" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="K16" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="L16" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="M16" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="N16" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="O16" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="P16" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="Q16" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="R16" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="S16" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="T16" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="U16" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="V16" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="W16" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="X16" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="Y16" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
     </row>
     <row r="17">
@@ -28743,14 +28743,14 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J19" t="n">
+        <v>30.07448747215907</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0</v>
+      </c>
+      <c r="L19" t="n">
         <v>130.3599693155844</v>
       </c>
-      <c r="K19" t="n">
-        <v>35.71049010668769</v>
-      </c>
-      <c r="L19" t="n">
-        <v>0</v>
-      </c>
       <c r="M19" t="n">
         <v>0</v>
       </c>
@@ -28767,7 +28767,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>122.6619794737488</v>
+        <v>128.297982108277</v>
       </c>
       <c r="S19" t="n">
         <v>130.3599693155844</v>
@@ -28986,16 +28986,16 @@
         <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="M22" t="n">
-        <v>5.636002634528495</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
         <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>130.3599693155844</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
         <v>0</v>
@@ -29004,7 +29004,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>122.6619794737488</v>
+        <v>128.2979821082779</v>
       </c>
       <c r="S22" t="n">
         <v>130.3599693155844</v>
@@ -29229,7 +29229,7 @@
         <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>0</v>
+        <v>28.01250026485255</v>
       </c>
       <c r="O25" t="n">
         <v>0</v>
@@ -29238,7 +29238,7 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>28.01250026485194</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
         <v>130.3599693155844</v>
@@ -29296,16 +29296,16 @@
         <v>93.99127447431646</v>
       </c>
       <c r="J26" t="n">
+        <v>30.2722376590126</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" t="n">
         <v>93.99127447431646</v>
       </c>
-      <c r="K26" t="n">
-        <v>0</v>
-      </c>
-      <c r="L26" t="n">
-        <v>0</v>
-      </c>
       <c r="M26" t="n">
-        <v>30.27223765901363</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
         <v>93.99127447431646</v>
@@ -29472,10 +29472,10 @@
         <v>93.99127447431646</v>
       </c>
       <c r="P28" t="n">
+        <v>93.99127447431641</v>
+      </c>
+      <c r="Q28" t="n">
         <v>93.99127447431646</v>
-      </c>
-      <c r="Q28" t="n">
-        <v>93.99127447431658</v>
       </c>
       <c r="R28" t="n">
         <v>93.99127447431646</v>
@@ -29545,19 +29545,19 @@
         <v>93.99127447431646</v>
       </c>
       <c r="N29" t="n">
+        <v>86.65052755599618</v>
+      </c>
+      <c r="O29" t="n">
         <v>93.99127447431646</v>
       </c>
-      <c r="O29" t="n">
-        <v>0</v>
-      </c>
       <c r="P29" t="n">
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>30.27223765901272</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>93.99127447431646</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S29" t="n">
         <v>93.99127447431646</v>
@@ -29746,34 +29746,34 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="C32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="D32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="E32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="F32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="G32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="H32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="I32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="J32" t="n">
-        <v>106.3364573000709</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>106.3364573000709</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
@@ -29782,7 +29782,7 @@
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>81.10808140893357</v>
       </c>
       <c r="O32" t="n">
         <v>0</v>
@@ -29791,31 +29791,31 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="R32" t="n">
-        <v>86.27291196566499</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="S32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="T32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="U32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="V32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="W32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="X32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="Y32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727099</v>
       </c>
     </row>
     <row r="33">
@@ -29904,34 +29904,34 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="C34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="D34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="E34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="F34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="G34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="H34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="I34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="J34" t="n">
-        <v>106.3364573000709</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K34" t="n">
-        <v>106.3364573000709</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
         <v>0</v>
@@ -29940,40 +29940,40 @@
         <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>106.3364573000709</v>
+        <v>76.79385455031405</v>
       </c>
       <c r="O34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="P34" t="n">
-        <v>18.71446861254103</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="Q34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="R34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="S34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="T34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="U34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="V34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="W34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="X34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="Y34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727099</v>
       </c>
     </row>
     <row r="35">
@@ -30165,10 +30165,10 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J37" t="n">
-        <v>30.07448747215907</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>28.01250026485259</v>
       </c>
       <c r="L37" t="n">
         <v>0</v>
@@ -30180,16 +30180,16 @@
         <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>5.636002634528921</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
         <v>0</v>
       </c>
       <c r="Q37" t="n">
+        <v>0</v>
+      </c>
+      <c r="R37" t="n">
         <v>130.3599693155844</v>
-      </c>
-      <c r="R37" t="n">
-        <v>122.6619794737488</v>
       </c>
       <c r="S37" t="n">
         <v>130.3599693155844</v>
@@ -30402,31 +30402,31 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J40" t="n">
-        <v>30.07448747215907</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>28.01250026485211</v>
       </c>
       <c r="L40" t="n">
         <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>5.636002634529063</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
+        <v>0</v>
+      </c>
+      <c r="O40" t="n">
+        <v>0</v>
+      </c>
+      <c r="P40" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>0</v>
+      </c>
+      <c r="R40" t="n">
         <v>130.3599693155844</v>
-      </c>
-      <c r="O40" t="n">
-        <v>0</v>
-      </c>
-      <c r="P40" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q40" t="n">
-        <v>0</v>
-      </c>
-      <c r="R40" t="n">
-        <v>122.6619794737488</v>
       </c>
       <c r="S40" t="n">
         <v>130.3599693155844</v>
@@ -30639,16 +30639,16 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J43" t="n">
-        <v>30.07448747215907</v>
+        <v>35.71049010668768</v>
       </c>
       <c r="K43" t="n">
-        <v>5.636002634529092</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="L43" t="n">
         <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>130.3599693155844</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
         <v>0</v>
@@ -30876,31 +30876,31 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J46" t="n">
+        <v>30.07448747215907</v>
+      </c>
+      <c r="K46" t="n">
+        <v>0</v>
+      </c>
+      <c r="L46" t="n">
+        <v>0</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0</v>
+      </c>
+      <c r="N46" t="n">
+        <v>0</v>
+      </c>
+      <c r="O46" t="n">
+        <v>0</v>
+      </c>
+      <c r="P46" t="n">
         <v>130.3599693155844</v>
       </c>
-      <c r="K46" t="n">
-        <v>0</v>
-      </c>
-      <c r="L46" t="n">
-        <v>35.71049010668821</v>
-      </c>
-      <c r="M46" t="n">
-        <v>0</v>
-      </c>
-      <c r="N46" t="n">
-        <v>0</v>
-      </c>
-      <c r="O46" t="n">
-        <v>0</v>
-      </c>
-      <c r="P46" t="n">
-        <v>0</v>
-      </c>
       <c r="Q46" t="n">
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>122.6619794737488</v>
+        <v>128.2979821082779</v>
       </c>
       <c r="S46" t="n">
         <v>130.3599693155844</v>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>93.07534195014132</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>220.4309503205627</v>
       </c>
       <c r="M2" t="n">
-        <v>543.6957424344371</v>
+        <v>518.7905844542306</v>
       </c>
       <c r="N2" t="n">
-        <v>533.1427107449111</v>
+        <v>518.7905844542306</v>
       </c>
       <c r="O2" t="n">
         <v>444.4844453457863</v>
@@ -34717,7 +34717,7 @@
         <v>351.7045375065877</v>
       </c>
       <c r="Q2" t="n">
-        <v>186.7126870110591</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34775,25 +34775,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>55.23572912476145</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L3" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M3" t="n">
-        <v>543.6957424344371</v>
+        <v>518.7905844542306</v>
       </c>
       <c r="N3" t="n">
-        <v>543.6957424344371</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>521.7376591828091</v>
+        <v>314.2725371454127</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -34933,7 +34933,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>146.110881726089</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>362.6084404317796</v>
@@ -34942,19 +34942,19 @@
         <v>498.303324968211</v>
       </c>
       <c r="M5" t="n">
-        <v>543.6957424344371</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>533.1427107449111</v>
+        <v>518.7905844542306</v>
       </c>
       <c r="O5" t="n">
-        <v>68.95436468749502</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>43.30161987033139</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M6" t="n">
-        <v>468.6684060776311</v>
+        <v>118.4507870974713</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>518.7905844542306</v>
       </c>
       <c r="O6" t="n">
-        <v>521.7376591828091</v>
+        <v>518.7905844542306</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q6" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35185,10 +35185,10 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O8" t="n">
-        <v>396.1825288359632</v>
+        <v>44.47799132937547</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>322.9688344062893</v>
@@ -35258,13 +35258,13 @@
         <v>488.450591816478</v>
       </c>
       <c r="M9" t="n">
-        <v>247.8874524576771</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="O9" t="n">
-        <v>521.7376591828091</v>
+        <v>292.4705431688957</v>
       </c>
       <c r="P9" t="n">
         <v>409.7185542589873</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>41.00382492257284</v>
+        <v>41.00382492257285</v>
       </c>
       <c r="K13" t="n">
         <v>153.7399700815419</v>
@@ -35586,7 +35586,7 @@
         <v>192.1653485326901</v>
       </c>
       <c r="Q13" t="n">
-        <v>74.53507640488439</v>
+        <v>74.53507640488441</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35723,25 +35723,25 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>172.5106644169664</v>
+        <v>51.00106726098205</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M15" t="n">
         <v>634.1127774006881</v>
       </c>
       <c r="N15" t="n">
-        <v>662.4019911217769</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q15" t="n">
         <v>236.7324157120106</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>41.00382492257284</v>
+        <v>41.00382492257285</v>
       </c>
       <c r="K16" t="n">
         <v>153.7399700815419</v>
@@ -35823,7 +35823,7 @@
         <v>192.1653485326901</v>
       </c>
       <c r="Q16" t="n">
-        <v>74.53507640488439</v>
+        <v>74.53507640488441</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35960,7 +35960,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>322.9688344062893</v>
@@ -35969,16 +35969,16 @@
         <v>488.450591816478</v>
       </c>
       <c r="M18" t="n">
-        <v>247.8874524576764</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>137.7507871136803</v>
       </c>
       <c r="O18" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P18" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>236.7324157120106</v>
@@ -36039,13 +36039,13 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>100.2854818434253</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>118.3721477934977</v>
+        <v>82.66165768680997</v>
       </c>
       <c r="L19" t="n">
-        <v>165.78549482202</v>
+        <v>296.1454641376044</v>
       </c>
       <c r="M19" t="n">
         <v>188.1733114527919</v>
@@ -36063,7 +36063,7 @@
         <v>3.456764010152483</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>5.636002634528176</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -36139,7 +36139,7 @@
         <v>351.7045375065877</v>
       </c>
       <c r="Q20" t="n">
-        <v>186.7126870110591</v>
+        <v>186.7126870110598</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36200,25 +36200,25 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K21" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M21" t="n">
-        <v>634.1127774006881</v>
+        <v>145.1867114541996</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O21" t="n">
-        <v>135.5123342397976</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P21" t="n">
         <v>409.7185542589873</v>
       </c>
       <c r="Q21" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36282,16 +36282,16 @@
         <v>82.66165768680997</v>
       </c>
       <c r="L22" t="n">
-        <v>165.78549482202</v>
+        <v>296.1454641376043</v>
       </c>
       <c r="M22" t="n">
-        <v>193.8093140873204</v>
+        <v>188.1733114527919</v>
       </c>
       <c r="N22" t="n">
         <v>185.0400343749588</v>
       </c>
       <c r="O22" t="n">
-        <v>294.7082188526633</v>
+        <v>164.3482495370789</v>
       </c>
       <c r="P22" t="n">
         <v>121.0870361379582</v>
@@ -36300,7 +36300,7 @@
         <v>3.456764010152483</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>5.636002634529095</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -36376,7 +36376,7 @@
         <v>351.7045375065877</v>
       </c>
       <c r="Q23" t="n">
-        <v>186.7126870110598</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -36434,25 +36434,25 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>114.2575577977044</v>
+        <v>35.0500461102036</v>
       </c>
       <c r="K24" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M24" t="n">
-        <v>484.6198681696871</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O24" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P24" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36525,7 +36525,7 @@
         <v>188.1733114527919</v>
       </c>
       <c r="N25" t="n">
-        <v>185.0400343749588</v>
+        <v>213.0525346398113</v>
       </c>
       <c r="O25" t="n">
         <v>164.3482495370789</v>
@@ -36534,10 +36534,10 @@
         <v>121.0870361379582</v>
       </c>
       <c r="Q25" t="n">
-        <v>31.46926427500442</v>
+        <v>3.456764010152483</v>
       </c>
       <c r="R25" t="n">
-        <v>7.697989841835607</v>
+        <v>7.697989841835579</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -36592,16 +36592,16 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>240.1021562004054</v>
+        <v>176.3831193851016</v>
       </c>
       <c r="K26" t="n">
         <v>362.6084404317796</v>
       </c>
       <c r="L26" t="n">
-        <v>498.303324968211</v>
+        <v>592.2945994425274</v>
       </c>
       <c r="M26" t="n">
-        <v>581.7882983101051</v>
+        <v>551.5160606510915</v>
       </c>
       <c r="N26" t="n">
         <v>627.1339852192276</v>
@@ -36671,28 +36671,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L27" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M27" t="n">
-        <v>634.1127774006881</v>
+        <v>247.8874524576761</v>
       </c>
       <c r="N27" t="n">
-        <v>662.4019911217769</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P27" t="n">
-        <v>35.0500461102038</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36771,7 +36771,7 @@
         <v>215.0783106122746</v>
       </c>
       <c r="Q28" t="n">
-        <v>97.44803848446907</v>
+        <v>97.44803848446894</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36841,19 +36841,19 @@
         <v>645.507335125408</v>
       </c>
       <c r="N29" t="n">
-        <v>627.1339852192276</v>
+        <v>619.7932383009073</v>
       </c>
       <c r="O29" t="n">
-        <v>444.4844453457863</v>
+        <v>538.4757198201028</v>
       </c>
       <c r="P29" t="n">
         <v>351.7045375065877</v>
       </c>
       <c r="Q29" t="n">
-        <v>216.9849246700718</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R29" t="n">
-        <v>56.37828989698318</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36914,10 +36914,10 @@
         <v>322.9688344062893</v>
       </c>
       <c r="L30" t="n">
-        <v>102.225266873466</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M30" t="n">
-        <v>634.1127774006881</v>
+        <v>247.8874524576761</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
@@ -37066,10 +37066,10 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>252.4473390261599</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K32" t="n">
-        <v>468.9448977318506</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L32" t="n">
         <v>498.303324968211</v>
@@ -37078,7 +37078,7 @@
         <v>551.5160606510915</v>
       </c>
       <c r="N32" t="n">
-        <v>533.1427107449111</v>
+        <v>614.2507921538447</v>
       </c>
       <c r="O32" t="n">
         <v>444.4844453457863</v>
@@ -37087,10 +37087,10 @@
         <v>351.7045375065877</v>
       </c>
       <c r="Q32" t="n">
-        <v>293.0491443111301</v>
+        <v>299.492606783769</v>
       </c>
       <c r="R32" t="n">
-        <v>48.65992738833171</v>
+        <v>75.16693519537664</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37154,10 +37154,10 @@
         <v>488.450591816478</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>247.8874524576768</v>
       </c>
       <c r="N33" t="n">
-        <v>247.8874524576764</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>521.7376591828091</v>
@@ -37224,10 +37224,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>76.26196982791186</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>188.9981149868809</v>
+        <v>82.66165768680997</v>
       </c>
       <c r="L34" t="n">
         <v>165.78549482202</v>
@@ -37236,16 +37236,16 @@
         <v>188.1733114527919</v>
       </c>
       <c r="N34" t="n">
-        <v>291.3764916750297</v>
+        <v>261.8338889252728</v>
       </c>
       <c r="O34" t="n">
-        <v>270.6847068371498</v>
+        <v>277.1281693097887</v>
       </c>
       <c r="P34" t="n">
-        <v>139.8015047504992</v>
+        <v>233.8669559106681</v>
       </c>
       <c r="Q34" t="n">
-        <v>109.7932213102234</v>
+        <v>116.2366837828624</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37382,28 +37382,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L36" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M36" t="n">
-        <v>634.1127774006881</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="N36" t="n">
-        <v>662.4019911217769</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P36" t="n">
-        <v>35.05004611020335</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,10 +37461,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>100.2854818434253</v>
       </c>
       <c r="K37" t="n">
-        <v>82.66165768680997</v>
+        <v>110.6741579516626</v>
       </c>
       <c r="L37" t="n">
         <v>165.78549482202</v>
@@ -37476,16 +37476,16 @@
         <v>185.0400343749588</v>
       </c>
       <c r="O37" t="n">
-        <v>169.9842521716078</v>
+        <v>164.3482495370789</v>
       </c>
       <c r="P37" t="n">
         <v>121.0870361379582</v>
       </c>
       <c r="Q37" t="n">
-        <v>133.8167333257369</v>
+        <v>3.456764010152483</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>7.697989841835579</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -37628,13 +37628,13 @@
         <v>488.450591816478</v>
       </c>
       <c r="M39" t="n">
-        <v>634.1127774006881</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="N39" t="n">
-        <v>135.5123342397976</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P39" t="n">
         <v>409.7185542589873</v>
@@ -37698,19 +37698,19 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>100.2854818434253</v>
       </c>
       <c r="K40" t="n">
-        <v>82.66165768680997</v>
+        <v>110.6741579516621</v>
       </c>
       <c r="L40" t="n">
         <v>165.78549482202</v>
       </c>
       <c r="M40" t="n">
-        <v>193.809314087321</v>
+        <v>188.1733114527919</v>
       </c>
       <c r="N40" t="n">
-        <v>315.4000036905431</v>
+        <v>185.0400343749588</v>
       </c>
       <c r="O40" t="n">
         <v>164.3482495370789</v>
@@ -37722,7 +37722,7 @@
         <v>3.456764010152483</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>7.697989841835607</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -37856,10 +37856,10 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L42" t="n">
         <v>488.450591816478</v>
@@ -37868,16 +37868,16 @@
         <v>634.1127774006881</v>
       </c>
       <c r="N42" t="n">
-        <v>662.4019911217769</v>
+        <v>23.49322931597588</v>
       </c>
       <c r="O42" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P42" t="n">
-        <v>35.05004611020335</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,16 +37935,16 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>5.636002634528606</v>
       </c>
       <c r="K43" t="n">
-        <v>88.29766032133907</v>
+        <v>213.0216270023944</v>
       </c>
       <c r="L43" t="n">
         <v>165.78549482202</v>
       </c>
       <c r="M43" t="n">
-        <v>318.5332807683764</v>
+        <v>188.1733114527919</v>
       </c>
       <c r="N43" t="n">
         <v>185.0400343749588</v>
@@ -38093,7 +38093,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K45" t="n">
         <v>322.9688344062893</v>
@@ -38102,10 +38102,10 @@
         <v>488.450591816478</v>
       </c>
       <c r="M45" t="n">
-        <v>362.1450102553808</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="O45" t="n">
         <v>521.7376591828091</v>
@@ -38172,13 +38172,13 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>100.2854818434253</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
         <v>82.66165768680997</v>
       </c>
       <c r="L46" t="n">
-        <v>201.4959849287082</v>
+        <v>165.78549482202</v>
       </c>
       <c r="M46" t="n">
         <v>188.1733114527919</v>
@@ -38190,13 +38190,13 @@
         <v>164.3482495370789</v>
       </c>
       <c r="P46" t="n">
-        <v>121.0870361379582</v>
+        <v>251.4470054535425</v>
       </c>
       <c r="Q46" t="n">
         <v>3.456764010152483</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>5.636002634529095</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
